--- a/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213803924402], ["'SUD manufacturing' (unit, GLO, None)", 0.01487647619738456], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143704745], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004236862969061587], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045834078021348286], ["'transport' (ton kilometer, GLO, None)", 1.2350060099991341e-05], ["'eol SUD' (kilogram, GLO, None)", 5.2402688120416954e-05], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867562179415e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006721378214411255], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959248793777e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114183714344e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00036314651667703623], ["'H200 SU' (unit, GLO, None)", 9.177659625324985e-05], ["'autoclave' (unit, GLO, None)", 0.0007684225880785803], ["'transport' (ton kilometer, GLO, None)", 5.05169095165126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010410300234249568], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.623193066311188e-05], ["'eol MUD' (kilogram, GLO, None)", 1.624144475515042e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200707292371], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0733746462433992], ["'SUD manufacturing' (unit, GLO, None)", 0.8021553749414567], ["'SUD raw materials' (unit, GLO, None)", 0.1639270602893103], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.1752740756980826], ["'mixed heating grid' (megajoule, GLO, None)", -0.13422878232431826], ["'transport' (ton kilometer, GLO, None)", 0.00898745447656709], ["'eol SUD' (kilogram, GLO, None)", 0.42146179481728585], ["'surgery use' (unit, GLO, None)", 0.01562895859391053], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903147551764]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1823296250647998], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189761196286], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342564449473], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019268238525], ["'H200 SU' (unit, GLO, None)", 0.0838242699089274], ["'autoclave' (unit, GLO, None)", 0.2178150752584584], ["'transport' (ton kilometer, GLO, None)", 0.0036762446571157507], ["'mixed heating grid' (megajoule, GLO, None)", -0.03048740117392633], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03981002648134908], ["'eol MUD' (kilogram, GLO, None)", 0.014434060959071468], ["'scalpel' (unit, GLO, None)", 0.01698343227861172], ["'surgery use' (unit, GLO, None)", 0.01562895859391053]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020392996979302445], ["'SUD manufacturing' (unit, GLO, None)", 1.327153256067799], ["'SUD raw materials' (unit, GLO, None)", 0.01652985351791961], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010512733779879706], ["'mixed heating grid' (megajoule, GLO, None)", -0.0048190569051756735], ["'transport' (ton kilometer, GLO, None)", 0.0002266664459318731], ["'eol SUD' (kilogram, GLO, None)", 0.03559246261103408], ["'surgery use' (unit, GLO, None)", 0.003280850393437926], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085926406626e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125837543010974], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775907439161], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228058513458], ["'mechanical disinfection' (unit, GLO, None)", 0.022144256011090314], ["'H200 SU' (unit, GLO, None)", 0.0033541153302822173], ["'autoclave' (unit, GLO, None)", 0.043642146601856405], ["'transport' (ton kilometer, GLO, None)", 9.271605358080774e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010945530355262187], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002387758762963269], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319273629765], ["'scalpel' (unit, GLO, None)", 0.007438220710385387], ["'surgery use' (unit, GLO, None)", 0.003280850393437926]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027163032352109733], ["'SUD manufacturing' (unit, GLO, None)", 1.7068158447544], ["'SUD raw materials' (unit, GLO, None)", 0.02262727798712074], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.013710100602745797], ["'mixed heating grid' (megajoule, GLO, None)", -0.0064268527002943965], ["'transport' (ton kilometer, GLO, None)", 0.00040197103884674124], ["'eol SUD' (kilogram, GLO, None)", 0.04890470702620437], ["'surgery use' (unit, GLO, None)", 0.004121580230129419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595701186982e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05201867263642872], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095739887553], ["'MUD raw materials' (unit, GLO, None)", 0.001425914983706744], ["'mechanical disinfection' (unit, GLO, None)", 0.02785142634097091], ["'H200 SU' (unit, GLO, None)", 0.004762851544835115], ["'autoclave' (unit, GLO, None)", 0.05495564502282137], ["'transport' (ton kilometer, GLO, None)", 0.00016442296177727618], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014597319082146575], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0031139771576798045], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581227214098], ["'scalpel' (unit, GLO, None)", 0.01012030671155281], ["'surgery use' (unit, GLO, None)", 0.004121580230129419]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.2013574965184299], ["'SUD manufacturing' (unit, GLO, None)", 106.6846170548184], ["'SUD raw materials' (unit, GLO, None)", 4.073295796178372], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.5252202532905094], ["'mixed heating grid' (megajoule, GLO, None)", -0.5925589928053211], ["'transport' (ton kilometer, GLO, None)", 0.1746232473985801], ["'eol SUD' (kilogram, GLO, None)", 0.9565836106260884], ["'surgery use' (unit, GLO, None)", 0.1675159676440827], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184159777177]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319422001579027], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038491617351957094], ["'MUD raw materials' (unit, GLO, None)", 0.03766559621953326], ["'mechanical disinfection' (unit, GLO, None)", 1.1381641659724937], ["'H200 SU' (unit, GLO, None)", 0.2004822136578868], ["'autoclave' (unit, GLO, None)", 2.273677381113238], ["'transport' (ton kilometer, GLO, None)", 0.07142820939243728], ["'mixed heating grid' (megajoule, GLO, None)", -0.13458800281167868], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11929335304584797], ["'eol MUD' (kilogram, GLO, None)", 0.03449744307977081], ["'scalpel' (unit, GLO, None)", 1.795858858486629], ["'surgery use' (unit, GLO, None)", 0.1675159676440827]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365811846783], ["'SUD manufacturing' (unit, GLO, None)", 0.2158470253285262], ["'SUD raw materials' (unit, GLO, None)", 0.06828633364471168], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0460161191208524], ["'mixed heating grid' (megajoule, GLO, None)", -0.038836449399299255], ["'transport' (ton kilometer, GLO, None)", 0.002842546276108628], ["'eol SUD' (kilogram, GLO, None)", 0.003062055092725759], ["'surgery use' (unit, GLO, None)", 0.004035239643002442], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983887181388]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04713929687228847], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544450938128], ["'MUD raw materials' (unit, GLO, None)", 0.000249366879335338], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944909691323], ["'H200 SU' (unit, GLO, None)", 0.029385423095680426], ["'autoclave' (unit, GLO, None)", 0.05605607121725953], ["'transport' (ton kilometer, GLO, None)", 0.001162720277181324], ["'mixed heating grid' (megajoule, GLO, None)", -0.008820927915046855], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010451647874758056], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079902775737], ["'scalpel' (unit, GLO, None)", 0.004524194717299333], ["'surgery use' (unit, GLO, None)", 0.004035239643002442]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.024581309620121e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001892103667319825], ["'SUD raw materials' (unit, GLO, None)", 4.842529424490695e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00013750077166909327], ["'mixed heating grid' (megajoule, GLO, None)", -3.415216273046439e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704915179589e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059496499369e-06], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765084082349e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000176969459853278], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.06480019523491e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003049931323e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010024453282605963], ["'H200 SU' (unit, GLO, None)", 2.3442177706570246e-06], ["'autoclave' (unit, GLO, None)", 0.00021319075572197776], ["'transport' (ton kilometer, GLO, None)", 2.5588448687982663e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.75698526121731e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.123057040552642e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1263237291419072e-07], ["'scalpel' (unit, GLO, None)", 1.307100761151285e-05], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598168797224e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.536292086781337e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054775617075e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.99545555094126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.147161495504507e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036383101371e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510937150773e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.913379383354978e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346015440261564e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741946547117e-07], ["'MUD raw materials' (unit, GLO, None)", 8.273262797909453e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.418619346917659e-05], ["'H200 SU' (unit, GLO, None)", 1.070062997795214e-06], ["'autoclave' (unit, GLO, None)", 0.00014745545761896616], ["'transport' (ton kilometer, GLO, None)", 1.0234374938162693e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.148152088629712e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.2702692830715766e-06], ["'eol MUD' (kilogram, GLO, None)", 5.680781881326448e-08], ["'scalpel' (unit, GLO, None)", 2.273305258449472e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00313984712600572], ["'SUD manufacturing' (unit, GLO, None)", 0.1584693968059006], ["'SUD raw materials' (unit, GLO, None)", 0.02773514889374525], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.013984008176993962], ["'mixed heating grid' (megajoule, GLO, None)", -0.005337557199162833], ["'transport' (ton kilometer, GLO, None)", 0.0004539499567991698], ["'eol SUD' (kilogram, GLO, None)", 0.005085285576286009], ["'surgery use' (unit, GLO, None)", 0.001386874429440236], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206353865606164e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0172493073515078], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463211087443], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386963023043], ["'mechanical disinfection' (unit, GLO, None)", 0.009875990459289009], ["'H200 SU' (unit, GLO, None)", 0.0011659821844071973], ["'autoclave' (unit, GLO, None)", 0.020359425032214815], ["'transport' (ton kilometer, GLO, None)", 0.00018568451252042525], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012123200762298382], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003176189825131234], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086708645327], ["'scalpel' (unit, GLO, None)", 0.01090034292644805], ["'surgery use' (unit, GLO, None)", 0.001386874429440236]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889717191328], ["'SUD manufacturing' (unit, GLO, None)", 19.96068142400984], ["'SUD raw materials' (unit, GLO, None)", 0.3015071897092987], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.2479157117857145], ["'mixed heating grid' (megajoule, GLO, None)", -0.14567139755471023], ["'transport' (ton kilometer, GLO, None)", 0.0071195743461809555], ["'eol SUD' (kilogram, GLO, None)", 0.5711743581200736], ["'surgery use' (unit, GLO, None)", 0.04098247089868465], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001599176102138097]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5709014833151146], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415559609244], ["'MUD raw materials' (unit, GLO, None)", 0.01541862309707684], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541428297208], ["'H200 SU' (unit, GLO, None)", 0.03656802081958298], ["'autoclave' (unit, GLO, None)", 0.6181740223218914], ["'transport' (ton kilometer, GLO, None)", 0.002912203585489919], ["'mixed heating grid' (megajoule, GLO, None)", -0.0330863638924061], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.056309131923950394], ["'eol MUD' (kilogram, GLO, None)", 0.009928005687784994], ["'scalpel' (unit, GLO, None)", 0.1233399749803694], ["'surgery use' (unit, GLO, None)", 0.04098247089868465]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0053273754170465515], ["'SUD manufacturing' (unit, GLO, None)", 0.07956673552430611], ["'SUD raw materials' (unit, GLO, None)", 0.009418586913249788], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.053227073668674026], ["'mixed heating grid' (megajoule, GLO, None)", -0.009257923652731355], ["'transport' (ton kilometer, GLO, None)", 0.0001457106948339236], ["'eol SUD' (kilogram, GLO, None)", 0.00041449673033916787], ["'surgery use' (unit, GLO, None)", 0.004494110598424343], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122293694232e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0510112034839536], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609319085958], ["'MUD raw materials' (unit, GLO, None)", 7.389266049321904e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936550512743], ["'H200 SU' (unit, GLO, None)", -0.001007051922084022], ["'autoclave' (unit, GLO, None)", 0.05995632091562039], ["'transport' (ton kilometer, GLO, None)", 5.960176652515772e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002102753430009079], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01208947303721432], ["'eol MUD' (kilogram, GLO, None)", 1.363197347836988e-05], ["'scalpel' (unit, GLO, None)", 0.001944046810333388], ["'surgery use' (unit, GLO, None)", 0.004494110598424343]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853360081022], ["'SUD manufacturing' (unit, GLO, None)", 0.05479510634460989], ["'SUD raw materials' (unit, GLO, None)", 0.002912706005344671], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03657870994513743], ["'mixed heating grid' (megajoule, GLO, None)", -0.08558162755248994], ["'transport' (ton kilometer, GLO, None)", 0.00034202434087462347], ["'eol SUD' (kilogram, GLO, None)", 0.00017033278167290108], ["'surgery use' (unit, GLO, None)", 0.003112725605413457], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404056532992635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440782864029545], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047334848459473246], ["'MUD raw materials' (unit, GLO, None)", 4.539447795485981e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.020776653026158512], ["'H200 SU' (unit, GLO, None)", -0.01403920684172786], ["'autoclave' (unit, GLO, None)", 0.04044309565944354], ["'transport' (ton kilometer, GLO, None)", 0.00013990225586368063], ["'mixed heating grid' (megajoule, GLO, None)", -0.019438166443364997], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00830812774661483], ["'eol MUD' (kilogram, GLO, None)", 4.594145315275747e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112839303504], ["'surgery use' (unit, GLO, None)", 0.003112725605413457]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088387407938], ["'SUD manufacturing' (unit, GLO, None)", 0.06855608635141974], ["'SUD raw materials' (unit, GLO, None)", 0.009177714667426841], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0017631168180012933], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010930661997540561], ["'transport' (ton kilometer, GLO, None)", 0.0001818541513715947], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953810658915], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625802336155e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585873078723949], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719779388272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800713796234], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888141445491048], ["'H200 SU' (unit, GLO, None)", 0.000377111241780574], ["'autoclave' (unit, GLO, None)", 0.004683569229669284], ["'transport' (ton kilometer, GLO, None)", 7.438595145012677e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024826827126422907], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004004569810725937], ["'eol MUD' (kilogram, GLO, None)", 1.7015338295688113e-05], ["'scalpel' (unit, GLO, None)", 0.003534619862585602], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.210055244572426e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869778517684405e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910469896238e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.7583351188415574e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.251525811619945e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865238471117e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463177607566e-08], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798935150889e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955997206230016e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737497931313e-09], ["'MUD raw materials' (unit, GLO, None)", 2.610494687531103e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993180353687e-07], ["'H200 SU' (unit, GLO, None)", -1.2075131800933015e-08], ["'autoclave' (unit, GLO, None)", 2.4213087026707176e-07], ["'transport' (ton kilometer, GLO, None)", 1.6778343864166223e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8425922397322027e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.99370913042186e-08], ["'eol MUD' (kilogram, GLO, None)", 2.126424544545038e-09], ["'scalpel' (unit, GLO, None)", 9.648030121628036e-09], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026479587e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005254960579482482], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774467097285], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001429322251147361], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001990182994224706], ["'transport' (ton kilometer, GLO, None)", 6.397550976399549e-06], ["'eol SUD' (kilogram, GLO, None)", 1.973544743104004e-05], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672310234647e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002308401166734271], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.068010058007563e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361040074604e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958774541052], ["'H200 SU' (unit, GLO, None)", 4.06255157278105e-05], ["'autoclave' (unit, GLO, None)", 0.00026584271066285297], ["'transport' (ton kilometer, GLO, None)", 2.6168658385903682e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.5203052805658894e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.246421722204545e-05], ["'eol MUD' (kilogram, GLO, None)", 6.128113538609723e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214946633026], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00019006654078512165], ["'SUD manufacturing' (unit, GLO, None)", 0.003644772678137158], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391403083294], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0003439630000040426], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005023760786876754], ["'transport' (ton kilometer, GLO, None)", 1.4276196150017156e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554152005508797e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979699029212e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003895141253617483], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0094642998129384e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196539057116e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668566321648422], ["'H200 SU' (unit, GLO, None)", 5.880140720812752e-05], ["'autoclave' (unit, GLO, None)", 0.00046015280561106855], ["'transport' (ton kilometer, GLO, None)", 5.839561130159261e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011410474553906696], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.812436656264166e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540921208824e-06], ["'scalpel' (unit, GLO, None)", 6.294455906092855e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002055204162326919], ["'SUD manufacturing' (unit, GLO, None)", 0.003734555695777323], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165207489186], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000351715714452264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005200655986279639], ["'transport' (ton kilometer, GLO, None)", 1.6160703769879095e-05], ["'eol SUD' (kilogram, GLO, None)", 9.70356134088111e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709851694340728e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003991859535605031], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372221006659883e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219782798571e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227077405472656], ["'H200 SU' (unit, GLO, None)", 6.435254489064242e-05], ["'autoclave' (unit, GLO, None)", 0.0004716821520276786], ["'transport' (ton kilometer, GLO, None)", 6.61040354019588e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011812256855477972], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.988524173061386e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9495756035173425e-06], ["'scalpel' (unit, GLO, None)", 6.537187984712411e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656477009005], ["'SUD manufacturing' (unit, GLO, None)", 0.01059279101569272], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177213933], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002939341896467727], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007395439208507579], ["'transport' (ton kilometer, GLO, None)", 1.4551059871971025e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00041960729108323744], ["'surgery use' (unit, GLO, None)", 0.000261150283663587], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.21321131913625e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00318723789597906], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024853132419371725], ["'MUD raw materials' (unit, GLO, None)", 2.435085332319509e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234268603196], ["'H200 SU' (unit, GLO, None)", 0.0002836793997645045], ["'autoclave' (unit, GLO, None)", 0.003992613011730039], ["'transport' (ton kilometer, GLO, None)", 5.951991884818708e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001679727090590665], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0006676131553971682], ["'eol MUD' (kilogram, GLO, None)", 1.2150595095286575e-05], ["'scalpel' (unit, GLO, None)", 0.000995847818216257], ["'surgery use' (unit, GLO, None)", 0.000261150283663587]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.273802284646896e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.951755113796805e-09], ["'SUD raw materials' (unit, GLO, None)", 1.11593072263351e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.057210509873612e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.332688856373351e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878067965956e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206468928086e-09], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202417118186e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188884978872138e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365079381712e-11], ["'MUD raw materials' (unit, GLO, None)", 1.00969069312286e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.930425652430078e-10], ["'H200 SU' (unit, GLO, None)", 1.4472279032193284e-10], ["'autoclave' (unit, GLO, None)", 1.3973319778403833e-09], ["'transport' (ton kilometer, GLO, None)", 1.4528706216488277e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.0269379711801536e-10], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4012437793097703e-10], ["'eol MUD' (kilogram, GLO, None)", 4.233188191685322e-11], ["'scalpel' (unit, GLO, None)", 2.78526925229281e-10], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312588977489e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.14957389655195e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479451512992e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.627995466979554e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.0282600696200283e-07], ["'transport' (ton kilometer, GLO, None)", 1.554059639913431e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740765363734e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885999345836e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.096152758098029e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577834177189e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436326802303e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.84118735573979e-07], ["'H200 SU' (unit, GLO, None)", 1.16187513218137e-07], ["'autoclave' (unit, GLO, None)", 5.875991684026061e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753698131882e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.878091121948706e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.240271417175156e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918478856943e-08], ["'scalpel' (unit, GLO, None)", 2.545109251624745e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284284679], ["'SUD manufacturing' (unit, GLO, None)", 0.06675054395638898], ["'SUD raw materials' (unit, GLO, None)", 0.02633937977377411], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008678826938535247], ["'mixed heating grid' (megajoule, GLO, None)", -0.012227673597683683], ["'transport' (ton kilometer, GLO, None)", 0.0012482163344891785], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857652620076], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865267267636675e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009768514553583208], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036589640016115145], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926688783609], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818902378883785], ["'H200 SU' (unit, GLO, None)", 0.01201317417193573], ["'autoclave' (unit, GLO, None)", 0.011758890330834], ["'transport' (ton kilometer, GLO, None)", 0.0005105726702209901], ["'mixed heating grid' (megajoule, GLO, None)", -0.0027772731298097387], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019712232335218844], ["'eol MUD' (kilogram, GLO, None)", 4.080430312098038e-05], ["'scalpel' (unit, GLO, None)", 0.001984452695740464], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213803924402], ["'SUD manufacturing' (unit, GLO, None)", 0.01487647619738456], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143704745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236862969061587], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045834078021348286], ["'transport' (ton kilometer, GLO, None)", 1.2350060099991341e-05], ["'eol SUD' (kilogram, GLO, None)", 5.2402688120416954e-05], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867562179415e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006721378214411255], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959248793777e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114183714344e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00036314651667703623], ["'H200 SU' (unit, GLO, None)", 9.177659625324985e-05], ["'autoclave' (unit, GLO, None)", 0.00019210564701964506], ["'transport' (ton kilometer, GLO, None)", 5.05169095165126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010410300234249568], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.623193066311188e-05], ["'eol MUD' (kilogram, GLO, None)", 1.624144475515042e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200707292371], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0733746462433992], ["'SUD manufacturing' (unit, GLO, None)", 0.8021553749414567], ["'SUD raw materials' (unit, GLO, None)", 0.1639270602893103], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1752740756980826], ["'mixed heating grid' (megajoule, GLO, None)", -0.13422878232431826], ["'transport' (ton kilometer, GLO, None)", 0.00898745447656709], ["'eol SUD' (kilogram, GLO, None)", 0.42146179481728585], ["'surgery use' (unit, GLO, None)", 0.01562895859391053], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903147551764]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1823296250647998], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189761196286], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342564449473], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019268238525], ["'H200 SU' (unit, GLO, None)", 0.0838242699089274], ["'autoclave' (unit, GLO, None)", 0.05445376881461459], ["'transport' (ton kilometer, GLO, None)", 0.0036762446571157507], ["'mixed heating grid' (megajoule, GLO, None)", -0.03048740117392633], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03981002648134908], ["'eol MUD' (kilogram, GLO, None)", 0.014434060959071468], ["'scalpel' (unit, GLO, None)", 0.01698343227861172], ["'surgery use' (unit, GLO, None)", 0.01562895859391053]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020392996979302445], ["'SUD manufacturing' (unit, GLO, None)", 1.327153256067799], ["'SUD raw materials' (unit, GLO, None)", 0.01652985351791961], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512733779879706], ["'mixed heating grid' (megajoule, GLO, None)", -0.0048190569051756735], ["'transport' (ton kilometer, GLO, None)", 0.0002266664459318731], ["'eol SUD' (kilogram, GLO, None)", 0.03559246261103408], ["'surgery use' (unit, GLO, None)", 0.003280850393437926], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085926406626e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125837543010974], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775907439161], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228058513458], ["'mechanical disinfection' (unit, GLO, None)", 0.022144256011090314], ["'H200 SU' (unit, GLO, None)", 0.0033541153302822173], ["'autoclave' (unit, GLO, None)", 0.0109105366504641], ["'transport' (ton kilometer, GLO, None)", 9.271605358080774e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010945530355262187], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002387758762963269], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319273629765], ["'scalpel' (unit, GLO, None)", 0.007438220710385387], ["'surgery use' (unit, GLO, None)", 0.003280850393437926]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027163032352109733], ["'SUD manufacturing' (unit, GLO, None)", 1.7068158447544], ["'SUD raw materials' (unit, GLO, None)", 0.02262727798712074], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710100602745797], ["'mixed heating grid' (megajoule, GLO, None)", -0.0064268527002943965], ["'transport' (ton kilometer, GLO, None)", 0.00040197103884674124], ["'eol SUD' (kilogram, GLO, None)", 0.04890470702620437], ["'surgery use' (unit, GLO, None)", 0.004121580230129419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595701186982e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05201867263642872], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095739887553], ["'MUD raw materials' (unit, GLO, None)", 0.001425914983706744], ["'mechanical disinfection' (unit, GLO, None)", 0.02785142634097091], ["'H200 SU' (unit, GLO, None)", 0.004762851544835115], ["'autoclave' (unit, GLO, None)", 0.01373891125570534], ["'transport' (ton kilometer, GLO, None)", 0.00016442296177727618], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014597319082146575], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031139771576798045], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581227214098], ["'scalpel' (unit, GLO, None)", 0.01012030671155281], ["'surgery use' (unit, GLO, None)", 0.004121580230129419]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.2013574965184299], ["'SUD manufacturing' (unit, GLO, None)", 106.6846170548184], ["'SUD raw materials' (unit, GLO, None)", 4.073295796178372], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252202532905094], ["'mixed heating grid' (megajoule, GLO, None)", -0.5925589928053211], ["'transport' (ton kilometer, GLO, None)", 0.1746232473985801], ["'eol SUD' (kilogram, GLO, None)", 0.9565836106260884], ["'surgery use' (unit, GLO, None)", 0.1675159676440827], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184159777177]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319422001579027], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038491617351957094], ["'MUD raw materials' (unit, GLO, None)", 0.03766559621953326], ["'mechanical disinfection' (unit, GLO, None)", 1.1381641659724937], ["'H200 SU' (unit, GLO, None)", 0.2004822136578868], ["'autoclave' (unit, GLO, None)", 0.5684193452783095], ["'transport' (ton kilometer, GLO, None)", 0.07142820939243728], ["'mixed heating grid' (megajoule, GLO, None)", -0.13458800281167868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11929335304584797], ["'eol MUD' (kilogram, GLO, None)", 0.03449744307977081], ["'scalpel' (unit, GLO, None)", 1.795858858486629], ["'surgery use' (unit, GLO, None)", 0.1675159676440827]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365811846783], ["'SUD manufacturing' (unit, GLO, None)", 0.2158470253285262], ["'SUD raw materials' (unit, GLO, None)", 0.06828633364471168], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0460161191208524], ["'mixed heating grid' (megajoule, GLO, None)", -0.038836449399299255], ["'transport' (ton kilometer, GLO, None)", 0.002842546276108628], ["'eol SUD' (kilogram, GLO, None)", 0.003062055092725759], ["'surgery use' (unit, GLO, None)", 0.004035239643002442], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983887181388]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04713929687228847], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544450938128], ["'MUD raw materials' (unit, GLO, None)", 0.000249366879335338], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944909691323], ["'H200 SU' (unit, GLO, None)", 0.029385423095680426], ["'autoclave' (unit, GLO, None)", 0.014014017804314879], ["'transport' (ton kilometer, GLO, None)", 0.001162720277181324], ["'mixed heating grid' (megajoule, GLO, None)", -0.008820927915046855], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010451647874758056], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079902775737], ["'scalpel' (unit, GLO, None)", 0.004524194717299333], ["'surgery use' (unit, GLO, None)", 0.004035239643002442]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.024581309620121e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001892103667319825], ["'SUD raw materials' (unit, GLO, None)", 4.842529424490695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077166909327], ["'mixed heating grid' (megajoule, GLO, None)", -3.415216273046439e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704915179589e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059496499369e-06], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765084082349e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000176969459853278], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.06480019523491e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003049931323e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010024453282605963], ["'H200 SU' (unit, GLO, None)", 2.3442177706570246e-06], ["'autoclave' (unit, GLO, None)", 5.329768893049443e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448687982663e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.75698526121731e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.123057040552642e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1263237291419072e-07], ["'scalpel' (unit, GLO, None)", 1.307100761151285e-05], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598168797224e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.536292086781337e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054775617075e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.99545555094126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.147161495504507e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036383101371e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510937150773e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.913379383354978e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346015440261564e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741946547117e-07], ["'MUD raw materials' (unit, GLO, None)", 8.273262797909453e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.418619346917659e-05], ["'H200 SU' (unit, GLO, None)", 1.070062997795214e-06], ["'autoclave' (unit, GLO, None)", 3.6863864404741534e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374938162693e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.148152088629712e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2702692830715766e-06], ["'eol MUD' (kilogram, GLO, None)", 5.680781881326448e-08], ["'scalpel' (unit, GLO, None)", 2.273305258449472e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00313984712600572], ["'SUD manufacturing' (unit, GLO, None)", 0.1584693968059006], ["'SUD raw materials' (unit, GLO, None)", 0.02773514889374525], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008176993962], ["'mixed heating grid' (megajoule, GLO, None)", -0.005337557199162833], ["'transport' (ton kilometer, GLO, None)", 0.0004539499567991698], ["'eol SUD' (kilogram, GLO, None)", 0.005085285576286009], ["'surgery use' (unit, GLO, None)", 0.001386874429440236], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206353865606164e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0172493073515078], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463211087443], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386963023043], ["'mechanical disinfection' (unit, GLO, None)", 0.009875990459289009], ["'H200 SU' (unit, GLO, None)", 0.0011659821844071973], ["'autoclave' (unit, GLO, None)", 0.005089856258053703], ["'transport' (ton kilometer, GLO, None)", 0.00018568451252042525], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012123200762298382], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003176189825131234], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086708645327], ["'scalpel' (unit, GLO, None)", 0.01090034292644805], ["'surgery use' (unit, GLO, None)", 0.001386874429440236]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889717191328], ["'SUD manufacturing' (unit, GLO, None)", 19.96068142400984], ["'SUD raw materials' (unit, GLO, None)", 0.3015071897092987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2479157117857145], ["'mixed heating grid' (megajoule, GLO, None)", -0.14567139755471023], ["'transport' (ton kilometer, GLO, None)", 0.0071195743461809555], ["'eol SUD' (kilogram, GLO, None)", 0.5711743581200736], ["'surgery use' (unit, GLO, None)", 0.04098247089868465], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001599176102138097]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5709014833151146], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415559609244], ["'MUD raw materials' (unit, GLO, None)", 0.01541862309707684], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541428297208], ["'H200 SU' (unit, GLO, None)", 0.03656802081958298], ["'autoclave' (unit, GLO, None)", 0.15454350558047283], ["'transport' (ton kilometer, GLO, None)", 0.002912203585489919], ["'mixed heating grid' (megajoule, GLO, None)", -0.0330863638924061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.056309131923950394], ["'eol MUD' (kilogram, GLO, None)", 0.009928005687784994], ["'scalpel' (unit, GLO, None)", 0.1233399749803694], ["'surgery use' (unit, GLO, None)", 0.04098247089868465]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0053273754170465515], ["'SUD manufacturing' (unit, GLO, None)", 0.07956673552430611], ["'SUD raw materials' (unit, GLO, None)", 0.009418586913249788], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.053227073668674026], ["'mixed heating grid' (megajoule, GLO, None)", -0.009257923652731355], ["'transport' (ton kilometer, GLO, None)", 0.0001457106948339236], ["'eol SUD' (kilogram, GLO, None)", 0.00041449673033916787], ["'surgery use' (unit, GLO, None)", 0.004494110598424343], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122293694232e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0510112034839536], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609319085958], ["'MUD raw materials' (unit, GLO, None)", 7.389266049321904e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936550512743], ["'H200 SU' (unit, GLO, None)", -0.001007051922084022], ["'autoclave' (unit, GLO, None)", 0.014989080228905095], ["'transport' (ton kilometer, GLO, None)", 5.960176652515772e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002102753430009079], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01208947303721432], ["'eol MUD' (kilogram, GLO, None)", 1.363197347836988e-05], ["'scalpel' (unit, GLO, None)", 0.001944046810333388], ["'surgery use' (unit, GLO, None)", 0.004494110598424343]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853360081022], ["'SUD manufacturing' (unit, GLO, None)", 0.05479510634460989], ["'SUD raw materials' (unit, GLO, None)", 0.002912706005344671], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657870994513743], ["'mixed heating grid' (megajoule, GLO, None)", -0.08558162755248994], ["'transport' (ton kilometer, GLO, None)", 0.00034202434087462347], ["'eol SUD' (kilogram, GLO, None)", 0.00017033278167290108], ["'surgery use' (unit, GLO, None)", 0.003112725605413457], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404056532992635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440782864029545], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047334848459473246], ["'MUD raw materials' (unit, GLO, None)", 4.539447795485981e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.020776653026158512], ["'H200 SU' (unit, GLO, None)", -0.01403920684172786], ["'autoclave' (unit, GLO, None)", 0.010110773914860883], ["'transport' (ton kilometer, GLO, None)", 0.00013990225586368063], ["'mixed heating grid' (megajoule, GLO, None)", -0.019438166443364997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00830812774661483], ["'eol MUD' (kilogram, GLO, None)", 4.594145315275747e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112839303504], ["'surgery use' (unit, GLO, None)", 0.003112725605413457]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088387407938], ["'SUD manufacturing' (unit, GLO, None)", 0.06855608635141974], ["'SUD raw materials' (unit, GLO, None)", 0.009177714667426841], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631168180012933], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010930661997540561], ["'transport' (ton kilometer, GLO, None)", 0.0001818541513715947], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953810658915], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625802336155e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585873078723949], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719779388272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800713796234], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888141445491048], ["'H200 SU' (unit, GLO, None)", 0.000377111241780574], ["'autoclave' (unit, GLO, None)", 0.0011708923074173207], ["'transport' (ton kilometer, GLO, None)", 7.438595145012677e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024826827126422907], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004004569810725937], ["'eol MUD' (kilogram, GLO, None)", 1.7015338295688113e-05], ["'scalpel' (unit, GLO, None)", 0.003534619862585602], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.210055244572426e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869778517684405e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910469896238e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7583351188415574e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.251525811619945e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865238471117e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463177607566e-08], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798935150889e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955997206230016e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737497931313e-09], ["'MUD raw materials' (unit, GLO, None)", 2.610494687531103e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993180353687e-07], ["'H200 SU' (unit, GLO, None)", -1.2075131800933015e-08], ["'autoclave' (unit, GLO, None)", 6.053271756676793e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343864166223e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8425922397322027e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.99370913042186e-08], ["'eol MUD' (kilogram, GLO, None)", 2.126424544545038e-09], ["'scalpel' (unit, GLO, None)", 9.648030121628036e-09], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026479587e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005254960579482482], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774467097285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322251147361], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001990182994224706], ["'transport' (ton kilometer, GLO, None)", 6.397550976399549e-06], ["'eol SUD' (kilogram, GLO, None)", 1.973544743104004e-05], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672310234647e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002308401166734271], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.068010058007563e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361040074604e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958774541052], ["'H200 SU' (unit, GLO, None)", 4.06255157278105e-05], ["'autoclave' (unit, GLO, None)", 6.646067766571324e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658385903682e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.5203052805658894e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.246421722204545e-05], ["'eol MUD' (kilogram, GLO, None)", 6.128113538609723e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214946633026], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00019006654078512165], ["'SUD manufacturing' (unit, GLO, None)", 0.003644772678137158], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391403083294], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003439630000040426], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005023760786876754], ["'transport' (ton kilometer, GLO, None)", 1.4276196150017156e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554152005508797e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979699029212e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003895141253617483], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0094642998129384e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196539057116e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668566321648422], ["'H200 SU' (unit, GLO, None)", 5.880140720812752e-05], ["'autoclave' (unit, GLO, None)", 0.00011503820140276712], ["'transport' (ton kilometer, GLO, None)", 5.839561130159261e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011410474553906696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.812436656264166e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540921208824e-06], ["'scalpel' (unit, GLO, None)", 6.294455906092855e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002055204162326919], ["'SUD manufacturing' (unit, GLO, None)", 0.003734555695777323], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165207489186], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000351715714452264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005200655986279639], ["'transport' (ton kilometer, GLO, None)", 1.6160703769879095e-05], ["'eol SUD' (kilogram, GLO, None)", 9.70356134088111e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709851694340728e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003991859535605031], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372221006659883e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219782798571e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227077405472656], ["'H200 SU' (unit, GLO, None)", 6.435254489064242e-05], ["'autoclave' (unit, GLO, None)", 0.00011792053800691962], ["'transport' (ton kilometer, GLO, None)", 6.61040354019588e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011812256855477972], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.988524173061386e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9495756035173425e-06], ["'scalpel' (unit, GLO, None)", 6.537187984712411e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656477009005], ["'SUD manufacturing' (unit, GLO, None)", 0.01059279101569272], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177213933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002939341896467727], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007395439208507579], ["'transport' (ton kilometer, GLO, None)", 1.4551059871971025e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00041960729108323744], ["'surgery use' (unit, GLO, None)", 0.000261150283663587], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.21321131913625e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00318723789597906], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024853132419371725], ["'MUD raw materials' (unit, GLO, None)", 2.435085332319509e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234268603196], ["'H200 SU' (unit, GLO, None)", 0.0002836793997645045], ["'autoclave' (unit, GLO, None)", 0.0009981532529325095], ["'transport' (ton kilometer, GLO, None)", 5.951991884818708e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001679727090590665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006676131553971682], ["'eol MUD' (kilogram, GLO, None)", 1.2150595095286575e-05], ["'scalpel' (unit, GLO, None)", 0.000995847818216257], ["'surgery use' (unit, GLO, None)", 0.000261150283663587]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.273802284646896e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.951755113796805e-09], ["'SUD raw materials' (unit, GLO, None)", 1.11593072263351e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210509873612e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.332688856373351e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878067965956e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206468928086e-09], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202417118186e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188884978872138e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365079381712e-11], ["'MUD raw materials' (unit, GLO, None)", 1.00969069312286e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.930425652430078e-10], ["'H200 SU' (unit, GLO, None)", 1.4472279032193284e-10], ["'autoclave' (unit, GLO, None)", 3.493329944600958e-10], ["'transport' (ton kilometer, GLO, None)", 1.4528706216488277e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.0269379711801536e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4012437793097703e-10], ["'eol MUD' (kilogram, GLO, None)", 4.233188191685322e-11], ["'scalpel' (unit, GLO, None)", 2.78526925229281e-10], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312588977489e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.14957389655195e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479451512992e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.627995466979554e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.0282600696200283e-07], ["'transport' (ton kilometer, GLO, None)", 1.554059639913431e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740765363734e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885999345836e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.096152758098029e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577834177189e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436326802303e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.84118735573979e-07], ["'H200 SU' (unit, GLO, None)", 1.16187513218137e-07], ["'autoclave' (unit, GLO, None)", 1.468997921006515e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753698131882e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.878091121948706e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.240271417175156e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918478856943e-08], ["'scalpel' (unit, GLO, None)", 2.545109251624745e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284284679], ["'SUD manufacturing' (unit, GLO, None)", 0.06675054395638898], ["'SUD raw materials' (unit, GLO, None)", 0.02633937977377411], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678826938535247], ["'mixed heating grid' (megajoule, GLO, None)", -0.012227673597683683], ["'transport' (ton kilometer, GLO, None)", 0.0012482163344891785], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857652620076], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865267267636675e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009768514553583208], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036589640016115145], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926688783609], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818902378883785], ["'H200 SU' (unit, GLO, None)", 0.01201317417193573], ["'autoclave' (unit, GLO, None)", 0.002939722582708499], ["'transport' (ton kilometer, GLO, None)", 0.0005105726702209901], ["'mixed heating grid' (megajoule, GLO, None)", -0.0027772731298097387], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019712232335218844], ["'eol MUD' (kilogram, GLO, None)", 4.080430312098038e-05], ["'scalpel' (unit, GLO, None)", 0.001984452695740464], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213803924402], ["'SUD manufacturing' (unit, GLO, None)", 0.01487647619738456], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143704745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236862969061587], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045834078021348286], ["'transport' (ton kilometer, GLO, None)", 1.2350060099991341e-05], ["'eol SUD' (kilogram, GLO, None)", 5.2402688120416954e-05], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867562179415e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006721378214411255], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959248793777e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114183714344e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00036314651667703623], ["'H200 SU' (unit, GLO, None)", 9.177659625324985e-05], ["'autoclave' (unit, GLO, None)", 0.00019210564701964506], ["'transport' (ton kilometer, GLO, None)", 5.05169095165126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010410300234249568], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.623193066311188e-05], ["'eol MUD' (kilogram, GLO, None)", 1.624144475515042e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200707292371], ["'surgery use' (unit, GLO, None)", 5.152698596877048e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0733746462433992], ["'SUD manufacturing' (unit, GLO, None)", 0.8021553749414567], ["'SUD raw materials' (unit, GLO, None)", 0.1639270602893103], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1752740756980826], ["'mixed heating grid' (megajoule, GLO, None)", -0.13422878232431826], ["'transport' (ton kilometer, GLO, None)", 0.00898745447656709], ["'eol SUD' (kilogram, GLO, None)", 0.42146179481728585], ["'surgery use' (unit, GLO, None)", 0.01562895859391053], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903147551764]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1823296250647998], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189761196286], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342564449473], ["'mechanical disinfection' (unit, GLO, None)", 0.10834019268238525], ["'H200 SU' (unit, GLO, None)", 0.0838242699089274], ["'autoclave' (unit, GLO, None)", 0.05445376881461459], ["'transport' (ton kilometer, GLO, None)", 0.0036762446571157507], ["'mixed heating grid' (megajoule, GLO, None)", -0.03048740117392633], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03981002648134908], ["'eol MUD' (kilogram, GLO, None)", 0.014434060959071468], ["'scalpel' (unit, GLO, None)", 0.01698343227861172], ["'surgery use' (unit, GLO, None)", 0.01562895859391053]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020392996979302445], ["'SUD manufacturing' (unit, GLO, None)", 1.327153256067799], ["'SUD raw materials' (unit, GLO, None)", 0.01652985351791961], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512733779879706], ["'mixed heating grid' (megajoule, GLO, None)", -0.0048190569051756735], ["'transport' (ton kilometer, GLO, None)", 0.0002266664459318731], ["'eol SUD' (kilogram, GLO, None)", 0.03559246261103408], ["'surgery use' (unit, GLO, None)", 0.003280850393437926], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085926406626e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125837543010974], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775907439161], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228058513458], ["'mechanical disinfection' (unit, GLO, None)", 0.022144256011090314], ["'H200 SU' (unit, GLO, None)", 0.0033541153302822173], ["'autoclave' (unit, GLO, None)", 0.0109105366504641], ["'transport' (ton kilometer, GLO, None)", 9.271605358080774e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010945530355262187], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002387758762963269], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319273629765], ["'scalpel' (unit, GLO, None)", 0.007438220710385387], ["'surgery use' (unit, GLO, None)", 0.003280850393437926]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027163032352109733], ["'SUD manufacturing' (unit, GLO, None)", 1.7068158447544], ["'SUD raw materials' (unit, GLO, None)", 0.02262727798712074], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710100602745797], ["'mixed heating grid' (megajoule, GLO, None)", -0.0064268527002943965], ["'transport' (ton kilometer, GLO, None)", 0.00040197103884674124], ["'eol SUD' (kilogram, GLO, None)", 0.04890470702620437], ["'surgery use' (unit, GLO, None)", 0.004121580230129419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595701186982e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05201867263642872], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095739887553], ["'MUD raw materials' (unit, GLO, None)", 0.001425914983706744], ["'mechanical disinfection' (unit, GLO, None)", 0.02785142634097091], ["'H200 SU' (unit, GLO, None)", 0.004762851544835115], ["'autoclave' (unit, GLO, None)", 0.01373891125570534], ["'transport' (ton kilometer, GLO, None)", 0.00016442296177727618], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014597319082146575], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031139771576798045], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581227214098], ["'scalpel' (unit, GLO, None)", 0.01012030671155281], ["'surgery use' (unit, GLO, None)", 0.004121580230129419]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.2013574965184299], ["'SUD manufacturing' (unit, GLO, None)", 106.6846170548184], ["'SUD raw materials' (unit, GLO, None)", 4.073295796178372], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252202532905094], ["'mixed heating grid' (megajoule, GLO, None)", -0.5925589928053211], ["'transport' (ton kilometer, GLO, None)", 0.1746232473985801], ["'eol SUD' (kilogram, GLO, None)", 0.9565836106260884], ["'surgery use' (unit, GLO, None)", 0.1675159676440827], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184159777177]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319422001579027], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038491617351957094], ["'MUD raw materials' (unit, GLO, None)", 0.03766559621953326], ["'mechanical disinfection' (unit, GLO, None)", 1.1381641659724937], ["'H200 SU' (unit, GLO, None)", 0.2004822136578868], ["'autoclave' (unit, GLO, None)", 0.5684193452783095], ["'transport' (ton kilometer, GLO, None)", 0.07142820939243728], ["'mixed heating grid' (megajoule, GLO, None)", -0.13458800281167868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11929335304584797], ["'eol MUD' (kilogram, GLO, None)", 0.03449744307977081], ["'scalpel' (unit, GLO, None)", 1.795858858486629], ["'surgery use' (unit, GLO, None)", 0.1675159676440827]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365811846783], ["'SUD manufacturing' (unit, GLO, None)", 0.2158470253285262], ["'SUD raw materials' (unit, GLO, None)", 0.06828633364471168], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0460161191208524], ["'mixed heating grid' (megajoule, GLO, None)", -0.038836449399299255], ["'transport' (ton kilometer, GLO, None)", 0.002842546276108628], ["'eol SUD' (kilogram, GLO, None)", 0.003062055092725759], ["'surgery use' (unit, GLO, None)", 0.004035239643002442], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983887181388]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04713929687228847], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544450938128], ["'MUD raw materials' (unit, GLO, None)", 0.000249366879335338], ["'mechanical disinfection' (unit, GLO, None)", 0.028043944909691323], ["'H200 SU' (unit, GLO, None)", 0.029385423095680426], ["'autoclave' (unit, GLO, None)", 0.014014017804314879], ["'transport' (ton kilometer, GLO, None)", 0.001162720277181324], ["'mixed heating grid' (megajoule, GLO, None)", -0.008820927915046855], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010451647874758056], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079902775737], ["'scalpel' (unit, GLO, None)", 0.004524194717299333], ["'surgery use' (unit, GLO, None)", 0.004035239643002442]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.024581309620121e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001892103667319825], ["'SUD raw materials' (unit, GLO, None)", 4.842529424490695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077166909327], ["'mixed heating grid' (megajoule, GLO, None)", -3.415216273046439e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704915179589e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059496499369e-06], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765084082349e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000176969459853278], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.06480019523491e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003049931323e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010024453282605963], ["'H200 SU' (unit, GLO, None)", 2.3442177706570246e-06], ["'autoclave' (unit, GLO, None)", 5.329768893049443e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448687982663e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.75698526121731e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.123057040552642e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1263237291419072e-07], ["'scalpel' (unit, GLO, None)", 1.307100761151285e-05], ["'surgery use' (unit, GLO, None)", 1.319445444371436e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598168797224e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.536292086781337e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054775617075e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.99545555094126e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.147161495504507e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036383101371e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510937150773e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.913379383354978e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346015440261564e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741946547117e-07], ["'MUD raw materials' (unit, GLO, None)", 8.273262797909453e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.418619346917659e-05], ["'H200 SU' (unit, GLO, None)", 1.070062997795214e-06], ["'autoclave' (unit, GLO, None)", 3.6863864404741534e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374938162693e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.148152088629712e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2702692830715766e-06], ["'eol MUD' (kilogram, GLO, None)", 5.680781881326448e-08], ["'scalpel' (unit, GLO, None)", 2.273305258449472e-06], ["'surgery use' (unit, GLO, None)", 8.967658083060264e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00313984712600572], ["'SUD manufacturing' (unit, GLO, None)", 0.1584693968059006], ["'SUD raw materials' (unit, GLO, None)", 0.02773514889374525], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008176993962], ["'mixed heating grid' (megajoule, GLO, None)", -0.005337557199162833], ["'transport' (ton kilometer, GLO, None)", 0.0004539499567991698], ["'eol SUD' (kilogram, GLO, None)", 0.005085285576286009], ["'surgery use' (unit, GLO, None)", 0.001386874429440236], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206353865606164e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0172493073515078], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463211087443], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386963023043], ["'mechanical disinfection' (unit, GLO, None)", 0.009875990459289009], ["'H200 SU' (unit, GLO, None)", 0.0011659821844071973], ["'autoclave' (unit, GLO, None)", 0.005089856258053703], ["'transport' (ton kilometer, GLO, None)", 0.00018568451252042525], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012123200762298382], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003176189825131234], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086708645327], ["'scalpel' (unit, GLO, None)", 0.01090034292644805], ["'surgery use' (unit, GLO, None)", 0.001386874429440236]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889717191328], ["'SUD manufacturing' (unit, GLO, None)", 19.96068142400984], ["'SUD raw materials' (unit, GLO, None)", 0.3015071897092987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2479157117857145], ["'mixed heating grid' (megajoule, GLO, None)", -0.14567139755471023], ["'transport' (ton kilometer, GLO, None)", 0.0071195743461809555], ["'eol SUD' (kilogram, GLO, None)", 0.5711743581200736], ["'surgery use' (unit, GLO, None)", 0.04098247089868465], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001599176102138097]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5709014833151146], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415559609244], ["'MUD raw materials' (unit, GLO, None)", 0.01541862309707684], ["'mechanical disinfection' (unit, GLO, None)", 0.2969541428297208], ["'H200 SU' (unit, GLO, None)", 0.03656802081958298], ["'autoclave' (unit, GLO, None)", 0.15454350558047283], ["'transport' (ton kilometer, GLO, None)", 0.002912203585489919], ["'mixed heating grid' (megajoule, GLO, None)", -0.0330863638924061], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.056309131923950394], ["'eol MUD' (kilogram, GLO, None)", 0.009928005687784994], ["'scalpel' (unit, GLO, None)", 0.1233399749803694], ["'surgery use' (unit, GLO, None)", 0.04098247089868465]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0053273754170465515], ["'SUD manufacturing' (unit, GLO, None)", 0.07956673552430611], ["'SUD raw materials' (unit, GLO, None)", 0.009418586913249788], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.053227073668674026], ["'mixed heating grid' (megajoule, GLO, None)", -0.009257923652731355], ["'transport' (ton kilometer, GLO, None)", 0.0001457106948339236], ["'eol SUD' (kilogram, GLO, None)", 0.00041449673033916787], ["'surgery use' (unit, GLO, None)", 0.004494110598424343], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122293694232e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0510112034839536], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609319085958], ["'MUD raw materials' (unit, GLO, None)", 7.389266049321904e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.030903936550512743], ["'H200 SU' (unit, GLO, None)", -0.001007051922084022], ["'autoclave' (unit, GLO, None)", 0.014989080228905095], ["'transport' (ton kilometer, GLO, None)", 5.960176652515772e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002102753430009079], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01208947303721432], ["'eol MUD' (kilogram, GLO, None)", 1.363197347836988e-05], ["'scalpel' (unit, GLO, None)", 0.001944046810333388], ["'surgery use' (unit, GLO, None)", 0.004494110598424343]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853360081022], ["'SUD manufacturing' (unit, GLO, None)", 0.05479510634460989], ["'SUD raw materials' (unit, GLO, None)", 0.002912706005344671], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657870994513743], ["'mixed heating grid' (megajoule, GLO, None)", -0.08558162755248994], ["'transport' (ton kilometer, GLO, None)", 0.00034202434087462347], ["'eol SUD' (kilogram, GLO, None)", 0.00017033278167290108], ["'surgery use' (unit, GLO, None)", 0.003112725605413457], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404056532992635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440782864029545], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047334848459473246], ["'MUD raw materials' (unit, GLO, None)", 4.539447795485981e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.020776653026158512], ["'H200 SU' (unit, GLO, None)", -0.01403920684172786], ["'autoclave' (unit, GLO, None)", 0.010110773914860883], ["'transport' (ton kilometer, GLO, None)", 0.00013990225586368063], ["'mixed heating grid' (megajoule, GLO, None)", -0.019438166443364997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00830812774661483], ["'eol MUD' (kilogram, GLO, None)", 4.594145315275747e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112839303504], ["'surgery use' (unit, GLO, None)", 0.003112725605413457]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088387407938], ["'SUD manufacturing' (unit, GLO, None)", 0.06855608635141974], ["'SUD raw materials' (unit, GLO, None)", 0.009177714667426841], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631168180012933], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010930661997540561], ["'transport' (ton kilometer, GLO, None)", 0.0001818541513715947], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953810658915], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625802336155e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585873078723949], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719779388272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800713796234], ["'mechanical disinfection' (unit, GLO, None)", 0.0017888141445491048], ["'H200 SU' (unit, GLO, None)", 0.000377111241780574], ["'autoclave' (unit, GLO, None)", 0.0011708923074173207], ["'transport' (ton kilometer, GLO, None)", 7.438595145012677e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024826827126422907], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004004569810725937], ["'eol MUD' (kilogram, GLO, None)", 1.7015338295688113e-05], ["'scalpel' (unit, GLO, None)", 0.003534619862585602], ["'surgery use' (unit, GLO, None)", 0.0002282867216807909]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.210055244572426e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869778517684405e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910469896238e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7583351188415574e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.251525811619945e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865238471117e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463177607566e-08], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798935150889e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955997206230016e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737497931313e-09], ["'MUD raw materials' (unit, GLO, None)", 2.610494687531103e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.1370993180353687e-07], ["'H200 SU' (unit, GLO, None)", -1.2075131800933015e-08], ["'autoclave' (unit, GLO, None)", 6.053271756676793e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343864166223e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8425922397322027e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.99370913042186e-08], ["'eol MUD' (kilogram, GLO, None)", 2.126424544545038e-09], ["'scalpel' (unit, GLO, None)", 9.648030121628036e-09], ["'surgery use' (unit, GLO, None)", 1.517327570349823e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026479587e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005254960579482482], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774467097285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322251147361], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001990182994224706], ["'transport' (ton kilometer, GLO, None)", 6.397550976399549e-06], ["'eol SUD' (kilogram, GLO, None)", 1.973544743104004e-05], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672310234647e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002308401166734271], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.068010058007563e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361040074604e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00012492958774541052], ["'H200 SU' (unit, GLO, None)", 4.06255157278105e-05], ["'autoclave' (unit, GLO, None)", 6.646067766571324e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658385903682e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.5203052805658894e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.246421722204545e-05], ["'eol MUD' (kilogram, GLO, None)", 6.128113538609723e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214946633026], ["'surgery use' (unit, GLO, None)", 1.75685767940917e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00019006654078512165], ["'SUD manufacturing' (unit, GLO, None)", 0.003644772678137158], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391403083294], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003439630000040426], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005023760786876754], ["'transport' (ton kilometer, GLO, None)", 1.4276196150017156e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554152005508797e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979699029212e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003895141253617483], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0094642998129384e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196539057116e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00022668566321648422], ["'H200 SU' (unit, GLO, None)", 5.880140720812752e-05], ["'autoclave' (unit, GLO, None)", 0.00011503820140276712], ["'transport' (ton kilometer, GLO, None)", 5.839561130159261e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011410474553906696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.812436656264166e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540921208824e-06], ["'scalpel' (unit, GLO, None)", 6.294455906092855e-05], ["'surgery use' (unit, GLO, None)", 3.243214836180151e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002055204162326919], ["'SUD manufacturing' (unit, GLO, None)", 0.003734555695777323], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165207489186], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000351715714452264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005200655986279639], ["'transport' (ton kilometer, GLO, None)", 1.6160703769879095e-05], ["'eol SUD' (kilogram, GLO, None)", 9.70356134088111e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709851694340728e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003991859535605031], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372221006659883e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219782798571e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023227077405472656], ["'H200 SU' (unit, GLO, None)", 6.435254489064242e-05], ["'autoclave' (unit, GLO, None)", 0.00011792053800691962], ["'transport' (ton kilometer, GLO, None)", 6.61040354019588e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011812256855477972], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.988524173061386e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9495756035173425e-06], ["'scalpel' (unit, GLO, None)", 6.537187984712411e-05], ["'surgery use' (unit, GLO, None)", 3.321219469471796e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656477009005], ["'SUD manufacturing' (unit, GLO, None)", 0.01059279101569272], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177213933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002939341896467727], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007395439208507579], ["'transport' (ton kilometer, GLO, None)", 1.4551059871971025e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00041960729108323744], ["'surgery use' (unit, GLO, None)", 0.000261150283663587], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.21321131913625e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00318723789597906], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024853132419371725], ["'MUD raw materials' (unit, GLO, None)", 2.435085332319509e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0018344234268603196], ["'H200 SU' (unit, GLO, None)", 0.0002836793997645045], ["'autoclave' (unit, GLO, None)", 0.0009981532529325095], ["'transport' (ton kilometer, GLO, None)", 5.951991884818708e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001679727090590665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006676131553971682], ["'eol MUD' (kilogram, GLO, None)", 1.2150595095286575e-05], ["'scalpel' (unit, GLO, None)", 0.000995847818216257], ["'surgery use' (unit, GLO, None)", 0.000261150283663587]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.273802284646896e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.951755113796805e-09], ["'SUD raw materials' (unit, GLO, None)", 1.11593072263351e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210509873612e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.332688856373351e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878067965956e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206468928086e-09], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202417118186e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188884978872138e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365079381712e-11], ["'MUD raw materials' (unit, GLO, None)", 1.00969069312286e-11], ["'mechanical disinfection' (unit, GLO, None)", 6.930425652430078e-10], ["'H200 SU' (unit, GLO, None)", 1.4472279032193284e-10], ["'autoclave' (unit, GLO, None)", 3.493329944600958e-10], ["'transport' (ton kilometer, GLO, None)", 1.4528706216488277e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.0269379711801536e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4012437793097703e-10], ["'eol MUD' (kilogram, GLO, None)", 4.233188191685322e-11], ["'scalpel' (unit, GLO, None)", 2.78526925229281e-10], ["'surgery use' (unit, GLO, None)", 1.00031328093911e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312588977489e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.14957389655195e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479451512992e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.627995466979554e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.0282600696200283e-07], ["'transport' (ton kilometer, GLO, None)", 1.554059639913431e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740765363734e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885999345836e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.096152758098029e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577834177189e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436326802303e-09], ["'mechanical disinfection' (unit, GLO, None)", 2.84118735573979e-07], ["'H200 SU' (unit, GLO, None)", 1.16187513218137e-07], ["'autoclave' (unit, GLO, None)", 1.468997921006515e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753698131882e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.878091121948706e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.240271417175156e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918478856943e-08], ["'scalpel' (unit, GLO, None)", 2.545109251624745e-07], ["'surgery use' (unit, GLO, None)", 4.014411366635106e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284284679], ["'SUD manufacturing' (unit, GLO, None)", 0.06675054395638898], ["'SUD raw materials' (unit, GLO, None)", 0.02633937977377411], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678826938535247], ["'mixed heating grid' (megajoule, GLO, None)", -0.012227673597683683], ["'transport' (ton kilometer, GLO, None)", 0.0012482163344891785], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857652620076], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865267267636675e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009768514553583208], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036589640016115145], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926688783609], ["'mechanical disinfection' (unit, GLO, None)", 0.0056818902378883785], ["'H200 SU' (unit, GLO, None)", 0.01201317417193573], ["'autoclave' (unit, GLO, None)", 0.002939722582708499], ["'transport' (ton kilometer, GLO, None)", 0.0005105726702209901], ["'mixed heating grid' (megajoule, GLO, None)", -0.0027772731298097387], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019712232335218844], ["'eol MUD' (kilogram, GLO, None)", 4.080430312098038e-05], ["'scalpel' (unit, GLO, None)", 0.001984452695740464], ["'surgery use' (unit, GLO, None)", 0.0007925119110060544]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213763784893], ["'SUD manufacturing' (unit, GLO, None)", 0.01470091481821093], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143760666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236863128889517], ["'mixed heating grid' (megajoule, DK, None)", -0.0004972968910226299], ["'transport' (ton kilometer, GLO, None)", 1.2350060070371077e-05], ["'eol SUD' (kilogram, GLO, None)", 5.24026882800635e-05], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143866732104643e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016567499758], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959223513962e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114184636684e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465212299375], ["'H200 SU' (unit, GLO, None)", 8.564454059711038e-05], ["'autoclave' (unit, DK, None)", 0.00019210564806558056], ["'transport' (ton kilometer, GLO, None)", 5.051690939535334e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00011295110896946925], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.6231934293286e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444834601923e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200709159755], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07337464622723681], ["'SUD manufacturing' (unit, GLO, None)", 0.743171157824382], ["'SUD raw materials' (unit, GLO, None)", 0.1639270603016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17527407738279005], ["'mixed heating grid' (megajoule, DK, None)", -0.14556869687647617], ["'transport' (ton kilometer, GLO, None)", 0.008987454470758757], ["'eol SUD' (kilogram, GLO, None)", 0.4214617948472985], ["'surgery use' (unit, DK, None)", 0.01562895861071079], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.000660690300638437]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838754202795], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189720178583], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342590153366], ["'mechanical disinfection' (unit, DK, None)", 0.10834019277604437], ["'H200 SU' (unit, GLO, None)", 0.08203926167329358], ["'autoclave' (unit, DK, None)", 0.05445376872414668], ["'transport' (ton kilometer, GLO, None)", 0.0036762446547399003], ["'mixed heating grid' (megajoule, DK, None)", -0.03306303747370559], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03981002686399693], ["'eol MUD' (kilogram, GLO, None)", 0.014434060960174813], ["'scalpel' (unit, GLO, None)", 0.01698343233464214], ["'surgery use' (unit, DK, None)", 0.01562895861071079]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002039299651457754], ["'SUD manufacturing' (unit, GLO, None)", 1.327090702980533], ["'SUD raw materials' (unit, GLO, None)", 0.01652985352071682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512734535194159], ["'mixed heating grid' (megajoule, DK, None)", -0.007314554691880023], ["'transport' (ton kilometer, GLO, None)", 0.0002266664451308455], ["'eol SUD' (kilogram, GLO, None)", 0.035592462622729276], ["'surgery use' (unit, DK, None)", 0.003280850428017565], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085723435605e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125832725290141], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775773940955], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228062941555], ["'mechanical disinfection' (unit, DK, None)", 0.022144256283630252], ["'H200 SU' (unit, GLO, None)", 0.0029613005864265523], ["'autoclave' (unit, DK, None)", 0.010910536705813463], ["'transport' (ton kilometer, GLO, None)", 9.271605325315396e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.001661355779576122], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023877589345179515], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319279134806], ["'scalpel' (unit, GLO, None)", 0.007438220724507312], ["'surgery use' (unit, DK, None)", 0.003280850428017565]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002716303175747375], ["'SUD manufacturing' (unit, GLO, None)", 1.706688600565403], ["'SUD raw materials' (unit, GLO, None)", 0.02262727799269667], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710101572917447], ["'mixed heating grid' (megajoule, DK, None)", -0.009565813087331307], ["'transport' (ton kilometer, GLO, None)", 0.00040197103780070743], ["'eol SUD' (kilogram, GLO, None)", 0.0489047070412391], ["'surgery use' (unit, DK, None)", 0.004121580274948054], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595440899861e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0520185743799752], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095568758533], ["'MUD raw materials' (unit, GLO, None)", 0.001425914984288039], ["'mechanical disinfection' (unit, DK, None)", 0.02785142668874258], ["'H200 SU' (unit, GLO, None)", 0.004268749755279975], ["'autoclave' (unit, DK, None)", 0.013738911326398972], ["'transport' (ton kilometer, GLO, None)", 0.00016442296134940463], ["'mixed heating grid' (megajoule, DK, None)", -0.002172684398221114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031139773780350334], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581234352283], ["'scalpel' (unit, GLO, None)", 0.01012030673054942], ["'surgery use' (unit, DK, None)", 0.004121580274948054]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.20135749255492605], ["'SUD manufacturing' (unit, GLO, None)", 106.6649558749635], ["'SUD raw materials' (unit, GLO, None)", 4.073295798244034], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252203238505996], ["'mixed heating grid' (megajoule, DK, None)", -0.7262432209131133], ["'transport' (ton kilometer, GLO, None)", 0.17462324733929765], ["'eol SUD' (kilogram, GLO, None)", 0.9565836117191595], ["'surgery use' (unit, DK, None)", 0.16751597092706], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184035905202]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319406782308865], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03849161620657418], ["'MUD raw materials' (unit, GLO, None)", 0.03766559625211642], ["'mechanical disinfection' (unit, DK, None)", 1.1381641892926841], ["'H200 SU' (unit, GLO, None)", 0.1794390615363685], ["'autoclave' (unit, DK, None)", 0.5684193503820334], ["'transport' (ton kilometer, GLO, None)", 0.07142820936818829], ["'mixed heating grid' (megajoule, DK, None)", -0.16495171931401148], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1192933690721716], ["'eol MUD' (kilogram, GLO, None)", 0.03449744313309926], ["'scalpel' (unit, GLO, None)", 1.795858860111199], ["'surgery use' (unit, DK, None)", 0.16751597092706]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365812817801], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813169602872], ["'SUD raw materials' (unit, GLO, None)", 0.06828633362852393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.046016119623187836], ["'mixed heating grid' (megajoule, DK, None)", -0.04176251430182935], ["'transport' (ton kilometer, GLO, None)", 0.002842546274834362], ["'eol SUD' (kilogram, GLO, None)", 0.0030620550968126865], ["'surgery use' (unit, DK, None)", 0.004035239652775173], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983542343628]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924038688626], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544443189485], ["'MUD raw materials' (unit, GLO, None)", 0.0002493668798670405], ["'mechanical disinfection' (unit, DK, None)", 0.028043944987753457], ["'H200 SU' (unit, GLO, None)", 0.02892483321962825], ["'autoclave' (unit, DK, None)", 0.014014017805960156], ["'transport' (ton kilometer, GLO, None)", 0.001162720276660096], ["'mixed heating grid' (megajoule, DK, None)", -0.009485525425354586], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010451647988853577], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079921467043], ["'scalpel' (unit, GLO, None)", 0.004524194728982195], ["'surgery use' (unit, DK, None)", 0.004035239652775173]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0245813034964525e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001891765986143812], ["'SUD raw materials' (unit, GLO, None)", 4.842529429113035e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077289233898], ["'mixed heating grid' (megajoule, DK, None)", -4.3805376247187253e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704889985175e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059519528379e-06], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765035751855e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691982145868], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0648001695618375e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003050885556e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453310888394], ["'H200 SU' (unit, GLO, None)", 8.247117803650045e-07], ["'autoclave' (unit, DK, None)", 5.3297688932317825e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448584926975e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.94952093058529e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1230570683362394e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1263237389776154e-07], ["'scalpel' (unit, GLO, None)", 1.30710076508932e-05], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598165922587e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.553644755510688e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054768014075e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.995455661766252e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7986081759487583e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036379077687e-07], ["'eol SUD' (kilogram, GLO, None)", 2.139951095069662e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.91337938221767e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028900427884e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741923313975e-07], ["'MUD raw materials' (unit, GLO, None)", 8.27326279936185e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619348487569e-05], ["'H200 SU' (unit, GLO, None)", 9.67519205915332e-07], ["'autoclave' (unit, DK, None)", 3.6863864401812094e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374921704144e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.6277837999671e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.270269308243273e-06], ["'eol MUD' (kilogram, GLO, None)", 5.680781886619717e-08], ["'scalpel' (unit, GLO, None)", 2.273305257306316e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003139847114760581], ["'SUD manufacturing' (unit, GLO, None)", 0.1574755159375695], ["'SUD raw materials' (unit, GLO, None)", 0.02773514899185536], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008973203964], ["'mixed heating grid' (megajoule, DK, None)", -0.00640548481164763], ["'transport' (ton kilometer, GLO, None)", 0.00045394995434365357], ["'eol SUD' (kilogram, GLO, None)", 0.005085285593055947], ["'surgery use' (unit, DK, None)", 0.001386874441492083], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206348903065295e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853646469634], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463073900544], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386976604225], ["'mechanical disinfection' (unit, DK, None)", 0.00987599048786891], ["'H200 SU' (unit, GLO, None)", 0.0009978804915777798], ["'autoclave' (unit, DK, None)", 0.005089856218868732], ["'transport' (ton kilometer, GLO, None)", 0.00018568451151601645], ["'mixed heating grid' (megajoule, DK, None)", -0.0014548786168256337], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031761900059745288], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086769394842], ["'scalpel' (unit, GLO, None)", 0.01090034296838662], ["'surgery use' (unit, DK, None)", 0.001386874441492083]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889650711934], ["'SUD manufacturing' (unit, GLO, None)", 19.9506749530362], ["'SUD raw materials' (unit, GLO, None)", 0.3015071899538789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24791572306687254], ["'mixed heating grid' (megajoule, DK, None)", -0.17720332658970533], ["'transport' (ton kilometer, GLO, None)", 0.007119574335621819], ["'eol SUD' (kilogram, GLO, None)", 0.5711743582858777], ["'surgery use' (unit, DK, None)", 0.0409824714403017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00159917608073931]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937271657222], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415359196847], ["'MUD raw materials' (unit, GLO, None)", 0.01541862310225114], ["'mechanical disinfection' (unit, DK, None)", 0.29695414678801235], ["'H200 SU' (unit, GLO, None)", 0.031604599546686], ["'autoclave' (unit, DK, None)", 0.1545435064066122], ["'transport' (ton kilometer, GLO, None)", 0.0029122035811707907], ["'mixed heating grid' (megajoule, DK, None)", -0.04024821512603312], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05630913448624147], ["'eol MUD' (kilogram, GLO, None)", 0.00992800569605356], ["'scalpel' (unit, GLO, None)", 0.1233399752475698], ["'surgery use' (unit, DK, None)", 0.0409824714403017]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005327375419263268], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149230798098], ["'SUD raw materials' (unit, GLO, None)", 0.009418586929227616], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05322707372473004], ["'mixed heating grid' (megajoule, DK, None)", -0.012483831297965842], ["'transport' (ton kilometer, GLO, None)", 0.00014571069465827587], ["'eol SUD' (kilogram, GLO, None)", 0.0004144967299572767], ["'surgery use' (unit, DK, None)", 0.004494110598717755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122242319315e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670421992616], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609305624075], ["'MUD raw materials' (unit, GLO, None)", 7.389266068228228e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654433077], ["'H200 SU' (unit, GLO, None)", -0.0015148398814352063], ["'autoclave' (unit, DK, None)", 0.01498908022114793], ["'transport' (ton kilometer, GLO, None)", 5.9601766453310454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0028354542623288685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01208947304994633], ["'eol MUD' (kilogram, GLO, None)", 1.3631973491605726e-05], ["'scalpel' (unit, GLO, None)", 0.001944046816073654], ["'surgery use' (unit, DK, None)", 0.004494110598717755]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853376122847], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246637992644], ["'SUD raw materials' (unit, GLO, None)", 0.002912705965740758], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657871042053497], ["'mixed heating grid' (megajoule, DK, None)", -0.08782029174358118], ["'transport' (ton kilometer, GLO, None)", 0.00034202434132488385], ["'eol SUD' (kilogram, GLO, None)", 0.0001703327825261785], ["'surgery use' (unit, DK, None)", 0.003112725618188714], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.440405500979358e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.034407919429011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004733484814990385], ["'MUD raw materials' (unit, GLO, None)", 4.539447792257557e-05], ["'mechanical disinfection' (unit, DK, None)", 0.020776652909412], ["'H200 SU' (unit, GLO, None)", -0.01439159351308213], ["'autoclave' (unit, DK, None)", 0.010110773861483261], ["'transport' (ton kilometer, GLO, None)", 0.00013990225604785595], ["'mixed heating grid' (megajoule, DK, None)", -0.0199466345386994], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00830812785459194], ["'eol MUD' (kilogram, GLO, None)", 4.594145443013976e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112818371826], ["'surgery use' (unit, DK, None)", 0.003112725618188714]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088376781261], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265228942623], ["'SUD raw materials' (unit, GLO, None)", 0.009177714666180361], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631169260441952], ["'mixed heating grid' (megajoule, DK, None)", -0.0012718986898573158], ["'transport' (ton kilometer, GLO, None)", 0.0001818541502150558], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953900623468], ["'surgery use' (unit, DK, None)", 0.0002282867167111859], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.3746232871852715e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839305693599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719221175272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800716067106], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141164491085], ["'H200 SU' (unit, GLO, None)", 0.00034896132905816224], ["'autoclave' (unit, DK, None)", 0.0011708922627672734], ["'transport' (ton kilometer, GLO, None)", 7.4385950977054e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0002888865185156796], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004004570056123938], ["'eol MUD' (kilogram, GLO, None)", 1.7015338551600896e-05], ["'scalpel' (unit, GLO, None)", 0.003534619866667281], ["'surgery use' (unit, DK, None)", 0.0002282867167111859]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.2100552443197483e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746318747297e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910458019566e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.758335127891748e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3608319503971595e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865235284474e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463178258849e-08], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798822934629e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897126204152e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737481378632e-09], ["'MUD raw materials' (unit, GLO, None)", 2.61049468715177e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188460191e-07], ["'H200 SU' (unit, GLO, None)", -1.3795712439363806e-08], ["'autoclave' (unit, DK, None)", 6.053271757804569e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343851131519e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.090859418050341e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.993709150977571e-08], ["'eol MUD' (kilogram, GLO, None)", 2.126424544796535e-09], ["'scalpel' (unit, GLO, None)", 9.648030088724651e-09], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026342758e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005099328671482982], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774469454877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322317334375], ["'mixed heating grid' (megajoule, DK, None)", -0.00021236378338041745], ["'transport' (ton kilometer, GLO, None)", 6.397550962890758e-06], ["'eol SUD' (kilogram, GLO, None)", 1.9735447499195282e-05], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.442467194509938e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194056652674], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100485820984e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361045927493e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958921509614], ["'H200 SU' (unit, GLO, None)", 3.8524812356685574e-05], ["'autoclave' (unit, DK, None)", 6.646067792822934e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658330647077e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.823421435119883e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.246421872535207e-05], ["'eol MUD' (kilogram, GLO, None)", 6.128113570710565e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214947729925], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001900665415138884], ["'SUD manufacturing' (unit, GLO, None)", 0.003484290342377592], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391400765199], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00034396301070103476], ["'mixed heating grid' (megajoule, DK, None)", -0.000526164904549247], ["'transport' (ton kilometer, GLO, None)", 1.427619612868675e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554151987783315e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995978908387906e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003893896539316574], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009464291372309e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196548157087e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566561119015], ["'H200 SU' (unit, GLO, None)", 5.50568259509581e-05], ["'autoclave' (unit, DK, None)", 0.00011503820232545517], ["'transport' (ton kilometer, GLO, None)", 5.839561121434233e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.0001195079047195329], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.812436899225107e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540885277864e-06], ["'scalpel' (unit, GLO, None)", 6.294455905919644e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020552041703471663], ["'SUD manufacturing' (unit, GLO, None)", 0.00357238207001844], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165204611943], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035171572543606317], ["'mixed heating grid' (megajoule, DK, None)", -0.0005444304869606283], ["'transport' (ton kilometer, GLO, None)", 1.6160703748167906e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561323488026e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709850880887207e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601703875094], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372220996726374e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219792401602e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077650669854], ["'H200 SU' (unit, GLO, None)", 6.051728611921485e-05], ["'autoclave' (unit, DK, None)", 0.0001179205389434843], ["'transport' (ton kilometer, GLO, None)", 6.610403531315095e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00012365656888088772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.988524422536577e-05], ["'eol MUD' (kilogram, GLO, None)", 2.949575600112936e-06], ["'scalpel' (unit, GLO, None)", 6.537187985593704e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656471118148], ["'SUD manufacturing' (unit, GLO, None)", 0.01065766073372687], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177517013], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002939341909938109], ["'mixed heating grid' (megajoule, DK, None)", -0.0009282160307521845], ["'transport' (ton kilometer, GLO, None)", 1.4551059827263422e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004196072913561529], ["'surgery use' (unit, DK, None)", 0.000261150283775666], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211181546284e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288210232879], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313238610524], ["'MUD raw materials' (unit, GLO, None)", 2.435085333744508e-05], ["'mechanical disinfection' (unit, DK, None)", 0.001834423426578321], ["'H200 SU' (unit, GLO, None)", 0.00025398064809546873], ["'autoclave' (unit, DK, None)", 0.0009981532520316853], ["'transport' (ton kilometer, GLO, None)", 5.951991866531428e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00021082583046337053], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006676131584566979], ["'eol MUD' (kilogram, GLO, None)", 1.2150595105396957e-05], ["'scalpel' (unit, GLO, None)", 0.0009958478184956701], ["'surgery use' (unit, DK, None)", 0.000261150283775666]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2738022845536963e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.72893750602394e-09], ["'SUD raw materials' (unit, GLO, None)", 1.115930722348116e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210525865055e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4057472576659186e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878043584885e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206470334243e-09], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307201542337703e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712156065391e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365054374071e-11], ["'MUD raw materials' (unit, GLO, None)", 1.009690694271209e-11], ["'mechanical disinfection' (unit, DK, None)", 6.93042566430871e-10], ["'H200 SU' (unit, GLO, None)", 1.332227162126351e-10], ["'autoclave' (unit, DK, None)", 3.493329941806022e-10], ["'transport' (ton kilometer, GLO, None)", 1.45287062065154e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.192875615161051e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4012438156311577e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2331881924045715e-11], ["'scalpel' (unit, GLO, None)", 2.785269254650216e-10], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312586848488e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574862392884e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479456930242e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.627995576764476e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.32941395432847e-07], ["'transport' (ton kilometer, GLO, None)", 1.5540596374574053e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740767009367e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885421461177e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.09492729563502e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577815243221e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436338596906e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187375831377e-07], ["'H200 SU' (unit, GLO, None)", 1.1144707032853137e-07], ["'autoclave' (unit, DK, None)", 1.4689979223871182e-07], ["'transport' (ton kilometer, GLO, None)", 6.35675368808571e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.562102340646115e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.240271666529809e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918485818108e-08], ["'scalpel' (unit, GLO, None)", 2.54510925484211e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284775998], ["'SUD manufacturing' (unit, GLO, None)", 0.0646377268895148], ["'SUD raw materials' (unit, GLO, None)", 0.02633937975998069], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678827114560602], ["'mixed heating grid' (megajoule, DK, None)", -0.012807776884833796], ["'transport' (ton kilometer, GLO, None)", 0.0012482163339537155], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857666025075], ["'surgery use' (unit, DK, None)", 0.0007925119133273682], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865265724064784e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875812259697], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003658963999024901], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926690721167], ["'mechanical disinfection' (unit, DK, None)", 0.0056818902609178], ["'H200 SU' (unit, GLO, None)", 0.011921860518029738], ["'autoclave' (unit, DK, None)", 0.0029397225783198513], ["'transport' (ton kilometer, GLO, None)", 0.0005105726700019632], ["'mixed heating grid' (megajoule, DK, None)", -0.0029090320665400675], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001971223273502549], ["'eol MUD' (kilogram, GLO, None)", 4.080430318138682e-05], ["'scalpel' (unit, GLO, None)", 0.001984452698667129], ["'surgery use' (unit, DK, None)", 0.0007925119133273682]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
@@ -14,195 +14,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>MUD</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213763784893], ["'SUD manufacturing' (unit, GLO, None)", 0.01470091481821093], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143760666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236863128889517], ["'mixed heating grid' (megajoule, DK, None)", -0.0004972968910226299], ["'transport' (ton kilometer, GLO, None)", 1.2350060070371077e-05], ["'eol SUD' (kilogram, GLO, None)", 5.24026882800635e-05], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143866732104643e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016567499758], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959223513962e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114184636684e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465212299375], ["'H200 SU' (unit, GLO, None)", 8.564454059711038e-05], ["'autoclave' (unit, DK, None)", 0.00019210564806558056], ["'transport' (ton kilometer, GLO, None)", 5.051690939535334e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00011295110896946925], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.6231934293286e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444834601923e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200709159755], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016567499758], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959223513962e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114184636684e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465212299375], ["'H200 SU' (unit, GLO, None)", 8.564454059711038e-05], ["'autoclave' (unit, DK, None)", 0.00016466198405621198], ["'transport' (ton kilometer, GLO, None)", 5.051690939535334e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0578098366015964e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.753210063988385e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444834601923e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200709159755], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07337464622723681], ["'SUD manufacturing' (unit, GLO, None)", 0.743171157824382], ["'SUD raw materials' (unit, GLO, None)", 0.1639270603016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17527407738279005], ["'mixed heating grid' (megajoule, DK, None)", -0.14556869687647617], ["'transport' (ton kilometer, GLO, None)", 0.008987454470758757], ["'eol SUD' (kilogram, GLO, None)", 0.4214617948472985], ["'surgery use' (unit, DK, None)", 0.01562895861071079], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.000660690300638437]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838754202795], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189720178583], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342590153366], ["'mechanical disinfection' (unit, DK, None)", 0.10834019277604437], ["'H200 SU' (unit, GLO, None)", 0.08203926167329358], ["'autoclave' (unit, DK, None)", 0.05445376872414668], ["'transport' (ton kilometer, GLO, None)", 0.0036762446547399003], ["'mixed heating grid' (megajoule, DK, None)", -0.03306303747370559], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03981002686399693], ["'eol MUD' (kilogram, GLO, None)", 0.014434060960174813], ["'scalpel' (unit, GLO, None)", 0.01698343233464214], ["'surgery use' (unit, DK, None)", 0.01562895861071079]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838754202795], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189720178583], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342590153366], ["'mechanical disinfection' (unit, DK, None)", 0.10834019277604437], ["'H200 SU' (unit, GLO, None)", 0.08203926167329358], ["'autoclave' (unit, DK, None)", 0.046674658906411454], ["'transport' (ton kilometer, GLO, None)", 0.0036762446547399003], ["'mixed heating grid' (megajoule, DK, None)", -0.006023618923450245], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00725282519344277], ["'eol MUD' (kilogram, GLO, None)", 0.014434060960174813], ["'scalpel' (unit, GLO, None)", 0.01698343233464214], ["'surgery use' (unit, DK, None)", 0.01562895861071079]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002039299651457754], ["'SUD manufacturing' (unit, GLO, None)", 1.327090702980533], ["'SUD raw materials' (unit, GLO, None)", 0.01652985352071682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512734535194159], ["'mixed heating grid' (megajoule, DK, None)", -0.007314554691880023], ["'transport' (ton kilometer, GLO, None)", 0.0002266664451308455], ["'eol SUD' (kilogram, GLO, None)", 0.035592462622729276], ["'surgery use' (unit, DK, None)", 0.003280850428017565], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085723435605e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125832725290141], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775773940955], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228062941555], ["'mechanical disinfection' (unit, DK, None)", 0.022144256283630252], ["'H200 SU' (unit, GLO, None)", 0.0029613005864265523], ["'autoclave' (unit, DK, None)", 0.010910536705813463], ["'transport' (ton kilometer, GLO, None)", 9.271605325315396e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.001661355779576122], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023877589345179515], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319279134806], ["'scalpel' (unit, GLO, None)", 0.007438220724507312], ["'surgery use' (unit, DK, None)", 0.003280850428017565]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125832725290141], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775773940955], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228062941555], ["'mechanical disinfection' (unit, DK, None)", 0.022144256283630252], ["'H200 SU' (unit, GLO, None)", 0.0029613005864265523], ["'autoclave' (unit, DK, None)", 0.009351888604982973], ["'transport' (ton kilometer, GLO, None)", 9.271605325315396e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003026755820724831], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00043501598768831213], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319279134806], ["'scalpel' (unit, GLO, None)", 0.007438220724507312], ["'surgery use' (unit, DK, None)", 0.003280850428017565]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002716303175747375], ["'SUD manufacturing' (unit, GLO, None)", 1.706688600565403], ["'SUD raw materials' (unit, GLO, None)", 0.02262727799269667], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710101572917447], ["'mixed heating grid' (megajoule, DK, None)", -0.009565813087331307], ["'transport' (ton kilometer, GLO, None)", 0.00040197103780070743], ["'eol SUD' (kilogram, GLO, None)", 0.0489047070412391], ["'surgery use' (unit, DK, None)", 0.004121580274948054], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595440899861e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0520185743799752], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095568758533], ["'MUD raw materials' (unit, GLO, None)", 0.001425914984288039], ["'mechanical disinfection' (unit, DK, None)", 0.02785142668874258], ["'H200 SU' (unit, GLO, None)", 0.004268749755279975], ["'autoclave' (unit, DK, None)", 0.013738911326398972], ["'transport' (ton kilometer, GLO, None)", 0.00016442296134940463], ["'mixed heating grid' (megajoule, DK, None)", -0.002172684398221114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031139773780350334], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581234352283], ["'scalpel' (unit, GLO, None)", 0.01012030673054942], ["'surgery use' (unit, DK, None)", 0.004121580274948054]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0520185743799752], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095568758533], ["'MUD raw materials' (unit, GLO, None)", 0.001425914984288039], ["'mechanical disinfection' (unit, DK, None)", 0.02785142668874258], ["'H200 SU' (unit, GLO, None)", 0.004268749755279975], ["'autoclave' (unit, DK, None)", 0.01177620970834198], ["'transport' (ton kilometer, GLO, None)", 0.00016442296134940463], ["'mixed heating grid' (megajoule, DK, None)", -0.00039583244177786113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005673227414887456], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581234352283], ["'scalpel' (unit, GLO, None)", 0.01012030673054942], ["'surgery use' (unit, DK, None)", 0.004121580274948054]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.20135749255492605], ["'SUD manufacturing' (unit, GLO, None)", 106.6649558749635], ["'SUD raw materials' (unit, GLO, None)", 4.073295798244034], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252203238505996], ["'mixed heating grid' (megajoule, DK, None)", -0.7262432209131133], ["'transport' (ton kilometer, GLO, None)", 0.17462324733929765], ["'eol SUD' (kilogram, GLO, None)", 0.9565836117191595], ["'surgery use' (unit, DK, None)", 0.16751597092706], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184035905202]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319406782308865], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03849161620657418], ["'MUD raw materials' (unit, GLO, None)", 0.03766559625211642], ["'mechanical disinfection' (unit, DK, None)", 1.1381641892926841], ["'H200 SU' (unit, GLO, None)", 0.1794390615363685], ["'autoclave' (unit, DK, None)", 0.5684193503820334], ["'transport' (ton kilometer, GLO, None)", 0.07142820936818829], ["'mixed heating grid' (megajoule, DK, None)", -0.16495171931401148], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1192933690721716], ["'eol MUD' (kilogram, GLO, None)", 0.03449744313309926], ["'scalpel' (unit, GLO, None)", 1.795858860111199], ["'surgery use' (unit, DK, None)", 0.16751597092706]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319406782308865], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03849161620657418], ["'MUD raw materials' (unit, GLO, None)", 0.03766559625211642], ["'mechanical disinfection' (unit, DK, None)", 1.1381641892926841], ["'H200 SU' (unit, GLO, None)", 0.1794390615363685], ["'autoclave' (unit, DK, None)", 0.4872165860417431], ["'transport' (ton kilometer, GLO, None)", 0.07142820936818829], ["'mixed heating grid' (megajoule, DK, None)", -0.030051875866085476], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.021733568670353948], ["'eol MUD' (kilogram, GLO, None)", 0.03449744313309926], ["'scalpel' (unit, GLO, None)", 1.795858860111199], ["'surgery use' (unit, DK, None)", 0.16751597092706]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365812817801], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813169602872], ["'SUD raw materials' (unit, GLO, None)", 0.06828633362852393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.046016119623187836], ["'mixed heating grid' (megajoule, DK, None)", -0.04176251430182935], ["'transport' (ton kilometer, GLO, None)", 0.002842546274834362], ["'eol SUD' (kilogram, GLO, None)", 0.0030620550968126865], ["'surgery use' (unit, DK, None)", 0.004035239652775173], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983542343628]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924038688626], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544443189485], ["'MUD raw materials' (unit, GLO, None)", 0.0002493668798670405], ["'mechanical disinfection' (unit, DK, None)", 0.028043944987753457], ["'H200 SU' (unit, GLO, None)", 0.02892483321962825], ["'autoclave' (unit, DK, None)", 0.014014017805960156], ["'transport' (ton kilometer, GLO, None)", 0.001162720276660096], ["'mixed heating grid' (megajoule, DK, None)", -0.009485525425354586], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010451647988853577], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079921467043], ["'scalpel' (unit, GLO, None)", 0.004524194728982195], ["'surgery use' (unit, DK, None)", 0.004035239652775173]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924038688626], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544443189485], ["'MUD raw materials' (unit, GLO, None)", 0.0002493668798670405], ["'mechanical disinfection' (unit, DK, None)", 0.028043944987753457], ["'H200 SU' (unit, GLO, None)", 0.02892483321962825], ["'autoclave' (unit, DK, None)", 0.012012015262251567], ["'transport' (ton kilometer, GLO, None)", 0.001162720276660096], ["'mixed heating grid' (megajoule, DK, None)", -0.0017281288960965685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019041427956208606], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079921467043], ["'scalpel' (unit, GLO, None)", 0.004524194728982195], ["'surgery use' (unit, DK, None)", 0.004035239652775173]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0245813034964525e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001891765986143812], ["'SUD raw materials' (unit, GLO, None)", 4.842529429113035e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077289233898], ["'mixed heating grid' (megajoule, DK, None)", -4.3805376247187253e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704889985175e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059519528379e-06], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765035751855e-07]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691982145868], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0648001695618375e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003050885556e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453310888394], ["'H200 SU' (unit, GLO, None)", 8.247117803650045e-07], ["'autoclave' (unit, DK, None)", 5.3297688932317825e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448584926975e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.94952093058529e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1230570683362394e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1263237389776154e-07], ["'scalpel' (unit, GLO, None)", 1.30710076508932e-05], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691982145868], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0648001695618375e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003050885556e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453310888394], ["'H200 SU' (unit, GLO, None)", 8.247117803650045e-07], ["'autoclave' (unit, DK, None)", 4.568373337055815e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448584926975e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8126623303863332e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.6897693295136935e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1263237389776154e-07], ["'scalpel' (unit, GLO, None)", 1.30710076508932e-05], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598165922587e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.553644755510688e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054768014075e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.995455661766252e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7986081759487583e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036379077687e-07], ["'eol SUD' (kilogram, GLO, None)", 2.139951095069662e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.91337938221767e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028900427884e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741923313975e-07], ["'MUD raw materials' (unit, GLO, None)", 8.27326279936185e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619348487569e-05], ["'H200 SU' (unit, GLO, None)", 9.67519205915332e-07], ["'autoclave' (unit, DK, None)", 3.6863864401812094e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374921704144e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.6277837999671e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.270269308243273e-06], ["'eol MUD' (kilogram, GLO, None)", 5.680781886619717e-08], ["'scalpel' (unit, GLO, None)", 2.273305257306316e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028900427884e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741923313975e-07], ["'MUD raw materials' (unit, GLO, None)", 8.27326279936185e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619348487569e-05], ["'H200 SU' (unit, GLO, None)", 9.67519205915332e-07], ["'autoclave' (unit, DK, None)", 3.1597598058696095e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374921704144e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.571860474290979e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.1361103550567973e-07], ["'eol MUD' (kilogram, GLO, None)", 5.680781886619717e-08], ["'scalpel' (unit, GLO, None)", 2.273305257306316e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003139847114760581], ["'SUD manufacturing' (unit, GLO, None)", 0.1574755159375695], ["'SUD raw materials' (unit, GLO, None)", 0.02773514899185536], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008973203964], ["'mixed heating grid' (megajoule, DK, None)", -0.00640548481164763], ["'transport' (ton kilometer, GLO, None)", 0.00045394995434365357], ["'eol SUD' (kilogram, GLO, None)", 0.005085285593055947], ["'surgery use' (unit, DK, None)", 0.001386874441492083], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206348903065295e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853646469634], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463073900544], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386976604225], ["'mechanical disinfection' (unit, DK, None)", 0.00987599048786891], ["'H200 SU' (unit, GLO, None)", 0.0009978804915777798], ["'autoclave' (unit, DK, None)", 0.005089856218868732], ["'transport' (ton kilometer, GLO, None)", 0.00018568451151601645], ["'mixed heating grid' (megajoule, DK, None)", -0.0014548786168256337], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031761900059745288], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086769394842], ["'scalpel' (unit, GLO, None)", 0.01090034296838662], ["'surgery use' (unit, DK, None)", 0.001386874441492083]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853646469634], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463073900544], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386976604225], ["'mechanical disinfection' (unit, DK, None)", 0.00987599048786891], ["'H200 SU' (unit, GLO, None)", 0.0009978804915777798], ["'autoclave' (unit, DK, None)", 0.004362733901887486], ["'transport' (ton kilometer, GLO, None)", 0.00018568451151601645], ["'mixed heating grid' (megajoule, DK, None)", -0.00026505835631718825], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000578657004507742], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086769394842], ["'scalpel' (unit, GLO, None)", 0.01090034296838662], ["'surgery use' (unit, DK, None)", 0.001386874441492083]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889650711934], ["'SUD manufacturing' (unit, GLO, None)", 19.9506749530362], ["'SUD raw materials' (unit, GLO, None)", 0.3015071899538789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24791572306687254], ["'mixed heating grid' (megajoule, DK, None)", -0.17720332658970533], ["'transport' (ton kilometer, GLO, None)", 0.007119574335621819], ["'eol SUD' (kilogram, GLO, None)", 0.5711743582858777], ["'surgery use' (unit, DK, None)", 0.0409824714403017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00159917608073931]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937271657222], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415359196847], ["'MUD raw materials' (unit, GLO, None)", 0.01541862310225114], ["'mechanical disinfection' (unit, DK, None)", 0.29695414678801235], ["'H200 SU' (unit, GLO, None)", 0.031604599546686], ["'autoclave' (unit, DK, None)", 0.1545435064066122], ["'transport' (ton kilometer, GLO, None)", 0.0029122035811707907], ["'mixed heating grid' (megajoule, DK, None)", -0.04024821512603312], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05630913448624147], ["'eol MUD' (kilogram, GLO, None)", 0.00992800569605356], ["'scalpel' (unit, GLO, None)", 0.1233399752475698], ["'surgery use' (unit, DK, None)", 0.0409824714403017]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937271657222], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415359196847], ["'MUD raw materials' (unit, GLO, None)", 0.01541862310225114], ["'mechanical disinfection' (unit, DK, None)", 0.29695414678801235], ["'H200 SU' (unit, GLO, None)", 0.031604599546686], ["'autoclave' (unit, DK, None)", 0.1324658626342391], ["'transport' (ton kilometer, GLO, None)", 0.0029122035811707907], ["'mixed heating grid' (megajoule, DK, None)", -0.007332656912150837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.01025872980739219], ["'eol MUD' (kilogram, GLO, None)", 0.00992800569605356], ["'scalpel' (unit, GLO, None)", 0.1233399752475698], ["'surgery use' (unit, DK, None)", 0.0409824714403017]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005327375419263268], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149230798098], ["'SUD raw materials' (unit, GLO, None)", 0.009418586929227616], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05322707372473004], ["'mixed heating grid' (megajoule, DK, None)", -0.012483831297965842], ["'transport' (ton kilometer, GLO, None)", 0.00014571069465827587], ["'eol SUD' (kilogram, GLO, None)", 0.0004144967299572767], ["'surgery use' (unit, DK, None)", 0.004494110598717755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122242319315e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670421992616], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609305624075], ["'MUD raw materials' (unit, GLO, None)", 7.389266068228228e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654433077], ["'H200 SU' (unit, GLO, None)", -0.0015148398814352063], ["'autoclave' (unit, DK, None)", 0.01498908022114793], ["'transport' (ton kilometer, GLO, None)", 5.9601766453310454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0028354542623288685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01208947304994633], ["'eol MUD' (kilogram, GLO, None)", 1.3631973491605726e-05], ["'scalpel' (unit, GLO, None)", 0.001944046816073654], ["'surgery use' (unit, DK, None)", 0.004494110598717755]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670421992616], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609305624075], ["'MUD raw materials' (unit, GLO, None)", 7.389266068228228e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654433077], ["'H200 SU' (unit, GLO, None)", -0.0015148398814352063], ["'autoclave' (unit, DK, None)", 0.01284778304669823], ["'transport' (ton kilometer, GLO, None)", 5.9601766453310454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0005165797596402021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022025314127932937], ["'eol MUD' (kilogram, GLO, None)", 1.3631973491605726e-05], ["'scalpel' (unit, GLO, None)", 0.001944046816073654], ["'surgery use' (unit, DK, None)", 0.004494110598717755]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853376122847], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246637992644], ["'SUD raw materials' (unit, GLO, None)", 0.002912705965740758], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657871042053497], ["'mixed heating grid' (megajoule, DK, None)", -0.08782029174358118], ["'transport' (ton kilometer, GLO, None)", 0.00034202434132488385], ["'eol SUD' (kilogram, GLO, None)", 0.0001703327825261785], ["'surgery use' (unit, DK, None)", 0.003112725618188714], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.440405500979358e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.034407919429011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004733484814990385], ["'MUD raw materials' (unit, GLO, None)", 4.539447792257557e-05], ["'mechanical disinfection' (unit, DK, None)", 0.020776652909412], ["'H200 SU' (unit, GLO, None)", -0.01439159351308213], ["'autoclave' (unit, DK, None)", 0.010110773861483261], ["'transport' (ton kilometer, GLO, None)", 0.00013990225604785595], ["'mixed heating grid' (megajoule, DK, None)", -0.0199466345386994], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00830812785459194], ["'eol MUD' (kilogram, GLO, None)", 4.594145443013976e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112818371826], ["'surgery use' (unit, DK, None)", 0.003112725618188714]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.034407919429011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004733484814990385], ["'MUD raw materials' (unit, GLO, None)", 4.539447792257557e-05], ["'mechanical disinfection' (unit, DK, None)", 0.020776652909412], ["'H200 SU' (unit, GLO, None)", -0.01439159351308213], ["'autoclave' (unit, DK, None)", 0.008666377595557086], ["'transport' (ton kilometer, GLO, None)", 0.00013990225604785595], ["'mixed heating grid' (megajoule, DK, None)", -0.0036339953751076165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00151362367124206], ["'eol MUD' (kilogram, GLO, None)", 4.594145443013976e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112818371826], ["'surgery use' (unit, DK, None)", 0.003112725618188714]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088376781261], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265228942623], ["'SUD raw materials' (unit, GLO, None)", 0.009177714666180361], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631169260441952], ["'mixed heating grid' (megajoule, DK, None)", -0.0012718986898573158], ["'transport' (ton kilometer, GLO, None)", 0.0001818541502150558], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953900623468], ["'surgery use' (unit, DK, None)", 0.0002282867167111859], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.3746232871852715e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839305693599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719221175272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800716067106], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141164491085], ["'H200 SU' (unit, GLO, None)", 0.00034896132905816224], ["'autoclave' (unit, DK, None)", 0.0011708922627672734], ["'transport' (ton kilometer, GLO, None)", 7.4385950977054e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0002888865185156796], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004004570056123938], ["'eol MUD' (kilogram, GLO, None)", 1.7015338551600896e-05], ["'scalpel' (unit, GLO, None)", 0.003534619866667281], ["'surgery use' (unit, DK, None)", 0.0002282867167111859]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839305693599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719221175272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800716067106], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141164491085], ["'H200 SU' (unit, GLO, None)", 0.00034896132905816224], ["'autoclave' (unit, DK, None)", 0.0010036219395148061], ["'transport' (ton kilometer, GLO, None)", 7.4385950977054e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.263104761758835e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.29576161583282e-05], ["'eol MUD' (kilogram, GLO, None)", 1.7015338551600896e-05], ["'scalpel' (unit, GLO, None)", 0.003534619866667281], ["'surgery use' (unit, DK, None)", 0.0002282867167111859]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.2100552443197483e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746318747297e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910458019566e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.758335127891748e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3608319503971595e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865235284474e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463178258849e-08], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798822934629e-10]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897126204152e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737481378632e-09], ["'MUD raw materials' (unit, GLO, None)", 2.61049468715177e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188460191e-07], ["'H200 SU' (unit, GLO, None)", -1.3795712439363806e-08], ["'autoclave' (unit, DK, None)", 6.053271757804569e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343851131519e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.090859418050341e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.993709150977571e-08], ["'eol MUD' (kilogram, GLO, None)", 2.126424544796535e-09], ["'scalpel' (unit, GLO, None)", 9.648030088724651e-09], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897126204152e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737481378632e-09], ["'MUD raw materials' (unit, GLO, None)", 2.61049468715177e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188460191e-07], ["'H200 SU' (unit, GLO, None)", -1.3795712439363806e-08], ["'autoclave' (unit, DK, None)", 5.188518649546776e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343851131519e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.6311097536332266e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.275974579079926e-09], ["'eol MUD' (kilogram, GLO, None)", 2.126424544796535e-09], ["'scalpel' (unit, GLO, None)", 9.648030088724651e-09], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026342758e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005099328671482982], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774469454877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322317334375], ["'mixed heating grid' (megajoule, DK, None)", -0.00021236378338041745], ["'transport' (ton kilometer, GLO, None)", 6.397550962890758e-06], ["'eol SUD' (kilogram, GLO, None)", 1.9735447499195282e-05], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.442467194509938e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194056652674], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100485820984e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361045927493e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958921509614], ["'H200 SU' (unit, GLO, None)", 3.8524812356685574e-05], ["'autoclave' (unit, DK, None)", 6.646067792822934e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658330647077e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.823421435119883e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.246421872535207e-05], ["'eol MUD' (kilogram, GLO, None)", 6.128113570710565e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214947729925], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194056652674], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100485820984e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361045927493e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958921509614], ["'H200 SU' (unit, GLO, None)", 3.8524812356685574e-05], ["'autoclave' (unit, DK, None)", 5.6966295367053735e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658330647077e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.787593292198311e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.9145225965574765e-06], ["'eol MUD' (kilogram, GLO, None)", 6.128113570710565e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214947729925], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001900665415138884], ["'SUD manufacturing' (unit, GLO, None)", 0.003484290342377592], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391400765199], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00034396301070103476], ["'mixed heating grid' (megajoule, DK, None)", -0.000526164904549247], ["'transport' (ton kilometer, GLO, None)", 1.427619612868675e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554151987783315e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995978908387906e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003893896539316574], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009464291372309e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196548157087e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566561119015], ["'H200 SU' (unit, GLO, None)", 5.50568259509581e-05], ["'autoclave' (unit, DK, None)", 0.00011503820232545517], ["'transport' (ton kilometer, GLO, None)", 5.839561121434233e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.0001195079047195329], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.812436899225107e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540885277864e-06], ["'scalpel' (unit, GLO, None)", 6.294455905919644e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003893896539316574], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009464291372309e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196548157087e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566561119015], ["'H200 SU' (unit, GLO, None)", 5.50568259509581e-05], ["'autoclave' (unit, DK, None)", 9.860417342181876e-05], ["'transport' (ton kilometer, GLO, None)", 5.839561121434233e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.177265403830384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4233157731457223e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540885277864e-06], ["'scalpel' (unit, GLO, None)", 6.294455905919644e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020552041703471663], ["'SUD manufacturing' (unit, GLO, None)", 0.00357238207001844], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165204611943], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035171572543606317], ["'mixed heating grid' (megajoule, DK, None)", -0.0005444304869606283], ["'transport' (ton kilometer, GLO, None)", 1.6160703748167906e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561323488026e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709850880887207e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601703875094], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372220996726374e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219792401602e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077650669854], ["'H200 SU' (unit, GLO, None)", 6.051728611921485e-05], ["'autoclave' (unit, DK, None)", 0.0001179205389434843], ["'transport' (ton kilometer, GLO, None)", 6.610403531315095e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00012365656888088772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.988524422536577e-05], ["'eol MUD' (kilogram, GLO, None)", 2.949575600112936e-06], ["'scalpel' (unit, GLO, None)", 6.537187985593704e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601703875094], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372220996726374e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219792401602e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077650669854], ["'H200 SU' (unit, GLO, None)", 6.051728611921485e-05], ["'autoclave' (unit, DK, None)", 0.00010107474766584372], ["'transport' (ton kilometer, GLO, None)", 6.610403531315095e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2528482112758605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4553964353790698e-05], ["'eol MUD' (kilogram, GLO, None)", 2.949575600112936e-06], ["'scalpel' (unit, GLO, None)", 6.537187985593704e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656471118148], ["'SUD manufacturing' (unit, GLO, None)", 0.01065766073372687], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177517013], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002939341909938109], ["'mixed heating grid' (megajoule, DK, None)", -0.0009282160307521845], ["'transport' (ton kilometer, GLO, None)", 1.4551059827263422e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004196072913561529], ["'surgery use' (unit, DK, None)", 0.000261150283775666], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211181546284e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288210232879], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313238610524], ["'MUD raw materials' (unit, GLO, None)", 2.435085333744508e-05], ["'mechanical disinfection' (unit, DK, None)", 0.001834423426578321], ["'H200 SU' (unit, GLO, None)", 0.00025398064809546873], ["'autoclave' (unit, DK, None)", 0.0009981532520316853], ["'transport' (ton kilometer, GLO, None)", 5.951991866531428e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00021082583046337053], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006676131584566979], ["'eol MUD' (kilogram, GLO, None)", 1.2150595105396957e-05], ["'scalpel' (unit, GLO, None)", 0.0009958478184956701], ["'surgery use' (unit, DK, None)", 0.000261150283775666]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288210232879], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313238610524], ["'MUD raw materials' (unit, GLO, None)", 2.435085333744508e-05], ["'mechanical disinfection' (unit, DK, None)", 0.001834423426578321], ["'H200 SU' (unit, GLO, None)", 0.00025398064809546873], ["'autoclave' (unit, DK, None)", 0.0008555599303128735], ["'transport' (ton kilometer, GLO, None)", 5.951991866531428e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.840949165487976e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00012162969775606159], ["'eol MUD' (kilogram, GLO, None)", 1.2150595105396957e-05], ["'scalpel' (unit, GLO, None)", 0.0009958478184956701], ["'surgery use' (unit, DK, None)", 0.000261150283775666]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2738022845536963e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.72893750602394e-09], ["'SUD raw materials' (unit, GLO, None)", 1.115930722348116e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210525865055e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4057472576659186e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878043584885e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206470334243e-09], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307201542337703e-12]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712156065391e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365054374071e-11], ["'MUD raw materials' (unit, GLO, None)", 1.009690694271209e-11], ["'mechanical disinfection' (unit, DK, None)", 6.93042566430871e-10], ["'H200 SU' (unit, GLO, None)", 1.332227162126351e-10], ["'autoclave' (unit, DK, None)", 3.493329941806022e-10], ["'transport' (ton kilometer, GLO, None)", 1.45287062065154e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.192875615161051e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4012438156311577e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2331881924045715e-11], ["'scalpel' (unit, GLO, None)", 2.785269254650216e-10], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712156065391e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365054374071e-11], ["'MUD raw materials' (unit, GLO, None)", 1.009690694271209e-11], ["'mechanical disinfection' (unit, DK, None)", 6.93042566430871e-10], ["'H200 SU' (unit, GLO, None)", 1.332227162126351e-10], ["'autoclave' (unit, DK, None)", 2.9942828072623057e-10], ["'transport' (ton kilometer, GLO, None)", 1.45287062065154e-11], ["'mixed heating grid' (megajoule, DK, None)", -5.81696887075252e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.374727427616651e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2331881924045715e-11], ["'scalpel' (unit, GLO, None)", 2.785269254650216e-10], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312586848488e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574862392884e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479456930242e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.627995576764476e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.32941395432847e-07], ["'transport' (ton kilometer, GLO, None)", 1.5540596374574053e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740767009367e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885421461177e-09]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.09492729563502e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577815243221e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436338596906e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187375831377e-07], ["'H200 SU' (unit, GLO, None)", 1.1144707032853137e-07], ["'autoclave' (unit, DK, None)", 1.4689979223871182e-07], ["'transport' (ton kilometer, GLO, None)", 6.35675368808571e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.562102340646115e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.240271666529809e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918485818108e-08], ["'scalpel' (unit, GLO, None)", 2.54510925484211e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.09492729563502e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577815243221e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436338596906e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187375831377e-07], ["'H200 SU' (unit, GLO, None)", 1.1144707032853137e-07], ["'autoclave' (unit, DK, None)", 1.259141076331816e-07], ["'transport' (ton kilometer, GLO, None)", 6.35675368808571e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3777083486781684e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5012612311967577e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918485818108e-08], ["'scalpel' (unit, GLO, None)", 2.54510925484211e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284775998], ["'SUD manufacturing' (unit, GLO, None)", 0.0646377268895148], ["'SUD raw materials' (unit, GLO, None)", 0.02633937975998069], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678827114560602], ["'mixed heating grid' (megajoule, DK, None)", -0.012807776884833796], ["'transport' (ton kilometer, GLO, None)", 0.0012482163339537155], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857666025075], ["'surgery use' (unit, DK, None)", 0.0007925119133273682], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865265724064784e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875812259697], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003658963999024901], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926690721167], ["'mechanical disinfection' (unit, DK, None)", 0.0056818902609178], ["'H200 SU' (unit, GLO, None)", 0.011921860518029738], ["'autoclave' (unit, DK, None)", 0.0029397225783198513], ["'transport' (ton kilometer, GLO, None)", 0.0005105726700019632], ["'mixed heating grid' (megajoule, DK, None)", -0.0029090320665400675], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001971223273502549], ["'eol MUD' (kilogram, GLO, None)", 4.080430318138682e-05], ["'scalpel' (unit, GLO, None)", 0.001984452698667129], ["'surgery use' (unit, DK, None)", 0.0007925119133273682]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875812259697], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003658963999024901], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926690721167], ["'mechanical disinfection' (unit, DK, None)", 0.0056818902609178], ["'H200 SU' (unit, GLO, None)", 0.011921860518029738], ["'autoclave' (unit, DK, None)", 0.002519762209988445], ["'transport' (ton kilometer, GLO, None)", 0.0005105726700019632], ["'mixed heating grid' (megajoule, DK, None)", -0.0005299845974184905], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003591290673779917], ["'eol MUD' (kilogram, GLO, None)", 4.080430318138682e-05], ["'scalpel' (unit, GLO, None)", 0.001984452698667129], ["'surgery use' (unit, DK, None)", 0.0007925119133273682]]</t>
   </si>
 </sst>
 </file>
@@ -560,79 +566,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -695,9 +701,12 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -759,6 +768,9 @@
       </c>
       <c r="U3" t="s">
         <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_case2_cut_off_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213763784893], ["'SUD manufacturing' (unit, GLO, None)", 0.01470091481821093], ["'SUD raw materials' (unit, GLO, None)", 0.002276159143760666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236863128889517], ["'mixed heating grid' (megajoule, DK, None)", -0.0004972968910226299], ["'transport' (ton kilometer, GLO, None)", 1.2350060070371077e-05], ["'eol SUD' (kilogram, GLO, None)", 5.24026882800635e-05], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143866732104643e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016567499758], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959223513962e-05], ["'MUD raw materials' (unit, GLO, None)", 1.990114184636684e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465212299375], ["'H200 SU' (unit, GLO, None)", 8.564454059711038e-05], ["'autoclave' (unit, DK, None)", 0.00016466198405621198], ["'transport' (ton kilometer, GLO, None)", 5.051690939535334e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0578098366015964e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.753210063988385e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444834601923e-06], ["'scalpel' (unit, GLO, None)", 0.0008592200709159755], ["'surgery use' (unit, DK, None)", 5.152698657685552e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07337464622723681], ["'SUD manufacturing' (unit, GLO, None)", 0.743171157824382], ["'SUD raw materials' (unit, GLO, None)", 0.1639270603016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17527407738279005], ["'mixed heating grid' (megajoule, DK, None)", -0.14556869687647617], ["'transport' (ton kilometer, GLO, None)", 0.008987454470758757], ["'eol SUD' (kilogram, GLO, None)", 0.4214617948472985], ["'surgery use' (unit, DK, None)", 0.01562895861071079], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.000660690300638437]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838754202795], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189720178583], ["'MUD raw materials' (unit, GLO, None)", 0.0009382342590153366], ["'mechanical disinfection' (unit, DK, None)", 0.10834019277604437], ["'H200 SU' (unit, GLO, None)", 0.08203926167329358], ["'autoclave' (unit, DK, None)", 0.046674658906411454], ["'transport' (ton kilometer, GLO, None)", 0.0036762446547399003], ["'mixed heating grid' (megajoule, DK, None)", -0.006023618923450245], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00725282519344277], ["'eol MUD' (kilogram, GLO, None)", 0.014434060960174813], ["'scalpel' (unit, GLO, None)", 0.01698343233464214], ["'surgery use' (unit, DK, None)", 0.01562895861071079]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002039299651457754], ["'SUD manufacturing' (unit, GLO, None)", 1.327090702980533], ["'SUD raw materials' (unit, GLO, None)", 0.01652985352071682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512734535194159], ["'mixed heating grid' (megajoule, DK, None)", -0.007314554691880023], ["'transport' (ton kilometer, GLO, None)", 0.0002266664451308455], ["'eol SUD' (kilogram, GLO, None)", 0.035592462622729276], ["'surgery use' (unit, DK, None)", 0.003280850428017565], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085723435605e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125832725290141], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775773940955], ["'MUD raw materials' (unit, GLO, None)", 0.0009099228062941555], ["'mechanical disinfection' (unit, DK, None)", 0.022144256283630252], ["'H200 SU' (unit, GLO, None)", 0.0029613005864265523], ["'autoclave' (unit, DK, None)", 0.009351888604982973], ["'transport' (ton kilometer, GLO, None)", 9.271605325315396e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003026755820724831], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00043501598768831213], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319279134806], ["'scalpel' (unit, GLO, None)", 0.007438220724507312], ["'surgery use' (unit, DK, None)", 0.003280850428017565]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002716303175747375], ["'SUD manufacturing' (unit, GLO, None)", 1.706688600565403], ["'SUD raw materials' (unit, GLO, None)", 0.02262727799269667], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710101572917447], ["'mixed heating grid' (megajoule, DK, None)", -0.009565813087331307], ["'transport' (ton kilometer, GLO, None)", 0.00040197103780070743], ["'eol SUD' (kilogram, GLO, None)", 0.0489047070412391], ["'surgery use' (unit, DK, None)", 0.004121580274948054], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595440899861e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0520185743799752], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095568758533], ["'MUD raw materials' (unit, GLO, None)", 0.001425914984288039], ["'mechanical disinfection' (unit, DK, None)", 0.02785142668874258], ["'H200 SU' (unit, GLO, None)", 0.004268749755279975], ["'autoclave' (unit, DK, None)", 0.01177620970834198], ["'transport' (ton kilometer, GLO, None)", 0.00016442296134940463], ["'mixed heating grid' (megajoule, DK, None)", -0.00039583244177786113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005673227414887456], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581234352283], ["'scalpel' (unit, GLO, None)", 0.01012030673054942], ["'surgery use' (unit, DK, None)", 0.004121580274948054]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.20135749255492605], ["'SUD manufacturing' (unit, GLO, None)", 106.6649558749635], ["'SUD raw materials' (unit, GLO, None)", 4.073295798244034], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252203238505996], ["'mixed heating grid' (megajoule, DK, None)", -0.7262432209131133], ["'transport' (ton kilometer, GLO, None)", 0.17462324733929765], ["'eol SUD' (kilogram, GLO, None)", 0.9565836117191595], ["'surgery use' (unit, DK, None)", 0.16751597092706], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184035905202]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319406782308865], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03849161620657418], ["'MUD raw materials' (unit, GLO, None)", 0.03766559625211642], ["'mechanical disinfection' (unit, DK, None)", 1.1381641892926841], ["'H200 SU' (unit, GLO, None)", 0.1794390615363685], ["'autoclave' (unit, DK, None)", 0.4872165860417431], ["'transport' (ton kilometer, GLO, None)", 0.07142820936818829], ["'mixed heating grid' (megajoule, DK, None)", -0.030051875866085476], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.021733568670353948], ["'eol MUD' (kilogram, GLO, None)", 0.03449744313309926], ["'scalpel' (unit, GLO, None)", 1.795858860111199], ["'surgery use' (unit, DK, None)", 0.16751597092706]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365812817801], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813169602872], ["'SUD raw materials' (unit, GLO, None)", 0.06828633362852393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.046016119623187836], ["'mixed heating grid' (megajoule, DK, None)", -0.04176251430182935], ["'transport' (ton kilometer, GLO, None)", 0.002842546274834362], ["'eol SUD' (kilogram, GLO, None)", 0.0030620550968126865], ["'surgery use' (unit, DK, None)", 0.004035239652775173], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983542343628]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924038688626], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544443189485], ["'MUD raw materials' (unit, GLO, None)", 0.0002493668798670405], ["'mechanical disinfection' (unit, DK, None)", 0.028043944987753457], ["'H200 SU' (unit, GLO, None)", 0.02892483321962825], ["'autoclave' (unit, DK, None)", 0.012012015262251567], ["'transport' (ton kilometer, GLO, None)", 0.001162720276660096], ["'mixed heating grid' (megajoule, DK, None)", -0.0017281288960965685], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019041427956208606], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079921467043], ["'scalpel' (unit, GLO, None)", 0.004524194728982195], ["'surgery use' (unit, DK, None)", 0.004035239652775173]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0245813034964525e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001891765986143812], ["'SUD raw materials' (unit, GLO, None)", 4.842529429113035e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077289233898], ["'mixed heating grid' (megajoule, DK, None)", -4.3805376247187253e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704889985175e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059519528379e-06], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765035751855e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691982145868], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0648001695618375e-06], ["'MUD raw materials' (unit, GLO, None)", 1.422003050885556e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453310888394], ["'H200 SU' (unit, GLO, None)", 8.247117803650045e-07], ["'autoclave' (unit, DK, None)", 4.568373337055815e-05], ["'transport' (ton kilometer, GLO, None)", 2.5588448584926975e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8126623303863332e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.6897693295136935e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1263237389776154e-07], ["'scalpel' (unit, GLO, None)", 1.30710076508932e-05], ["'surgery use' (unit, DK, None)", 1.319445448066351e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.705598165922587e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.553644755510688e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054768014075e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.995455661766252e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7986081759487583e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036379077687e-07], ["'eol SUD' (kilogram, GLO, None)", 2.139951095069662e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.91337938221767e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028900427884e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741923313975e-07], ["'MUD raw materials' (unit, GLO, None)", 8.27326279936185e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619348487569e-05], ["'H200 SU' (unit, GLO, None)", 9.67519205915332e-07], ["'autoclave' (unit, DK, None)", 3.1597598058696095e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374921704144e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.571860474290979e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.1361103550567973e-07], ["'eol MUD' (kilogram, GLO, None)", 5.680781886619717e-08], ["'scalpel' (unit, GLO, None)", 2.273305257306316e-06], ["'surgery use' (unit, DK, None)", 8.9676581020899e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003139847114760581], ["'SUD manufacturing' (unit, GLO, None)", 0.1574755159375695], ["'SUD raw materials' (unit, GLO, None)", 0.02773514899185536], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008973203964], ["'mixed heating grid' (megajoule, DK, None)", -0.00640548481164763], ["'transport' (ton kilometer, GLO, None)", 0.00045394995434365357], ["'eol SUD' (kilogram, GLO, None)", 0.005085285593055947], ["'surgery use' (unit, DK, None)", 0.001386874441492083], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206348903065295e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853646469634], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463073900544], ["'MUD raw materials' (unit, GLO, None)", 0.0002493386976604225], ["'mechanical disinfection' (unit, DK, None)", 0.00987599048786891], ["'H200 SU' (unit, GLO, None)", 0.0009978804915777798], ["'autoclave' (unit, DK, None)", 0.004362733901887486], ["'transport' (ton kilometer, GLO, None)", 0.00018568451151601645], ["'mixed heating grid' (megajoule, DK, None)", -0.00026505835631718825], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000578657004507742], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086769394842], ["'scalpel' (unit, GLO, None)", 0.01090034296838662], ["'surgery use' (unit, DK, None)", 0.001386874441492083]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889650711934], ["'SUD manufacturing' (unit, GLO, None)", 19.9506749530362], ["'SUD raw materials' (unit, GLO, None)", 0.3015071899538789], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24791572306687254], ["'mixed heating grid' (megajoule, DK, None)", -0.17720332658970533], ["'transport' (ton kilometer, GLO, None)", 0.007119574335621819], ["'eol SUD' (kilogram, GLO, None)", 0.5711743582858777], ["'surgery use' (unit, DK, None)", 0.0409824714403017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00159917608073931]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937271657222], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009947415359196847], ["'MUD raw materials' (unit, GLO, None)", 0.01541862310225114], ["'mechanical disinfection' (unit, DK, None)", 0.29695414678801235], ["'H200 SU' (unit, GLO, None)", 0.031604599546686], ["'autoclave' (unit, DK, None)", 0.1324658626342391], ["'transport' (ton kilometer, GLO, None)", 0.0029122035811707907], ["'mixed heating grid' (megajoule, DK, None)", -0.007332656912150837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.01025872980739219], ["'eol MUD' (kilogram, GLO, None)", 0.00992800569605356], ["'scalpel' (unit, GLO, None)", 0.1233399752475698], ["'surgery use' (unit, DK, None)", 0.0409824714403017]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005327375419263268], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149230798098], ["'SUD raw materials' (unit, GLO, None)", 0.009418586929227616], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05322707372473004], ["'mixed heating grid' (megajoule, DK, None)", -0.012483831297965842], ["'transport' (ton kilometer, GLO, None)", 0.00014571069465827587], ["'eol SUD' (kilogram, GLO, None)", 0.0004144967299572767], ["'surgery use' (unit, DK, None)", 0.004494110598717755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122242319315e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670421992616], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609305624075], ["'MUD raw materials' (unit, GLO, None)", 7.389266068228228e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654433077], ["'H200 SU' (unit, GLO, None)", -0.0015148398814352063], ["'autoclave' (unit, DK, None)", 0.01284778304669823], ["'transport' (ton kilometer, GLO, None)", 5.9601766453310454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0005165797596402021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022025314127932937], ["'eol MUD' (kilogram, GLO, None)", 1.3631973491605726e-05], ["'scalpel' (unit, GLO, None)", 0.001944046816073654], ["'surgery use' (unit, DK, None)", 0.004494110598717755]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853376122847], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246637992644], ["'SUD raw materials' (unit, GLO, None)", 0.002912705965740758], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657871042053497], ["'mixed heating grid' (megajoule, DK, None)", -0.08782029174358118], ["'transport' (ton kilometer, GLO, None)", 0.00034202434132488385], ["'eol SUD' (kilogram, GLO, None)", 0.0001703327825261785], ["'surgery use' (unit, DK, None)", 0.003112725618188714], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.440405500979358e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.034407919429011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004733484814990385], ["'MUD raw materials' (unit, GLO, None)", 4.539447792257557e-05], ["'mechanical disinfection' (unit, DK, None)", 0.020776652909412], ["'H200 SU' (unit, GLO, None)", -0.01439159351308213], ["'autoclave' (unit, DK, None)", 0.008666377595557086], ["'transport' (ton kilometer, GLO, None)", 0.00013990225604785595], ["'mixed heating grid' (megajoule, DK, None)", -0.0036339953751076165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00151362367124206], ["'eol MUD' (kilogram, GLO, None)", 4.594145443013976e-06], ["'scalpel' (unit, GLO, None)", 0.0005514112818371826], ["'surgery use' (unit, DK, None)", 0.003112725618188714]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088376781261], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265228942623], ["'SUD raw materials' (unit, GLO, None)", 0.009177714666180361], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631169260441952], ["'mixed heating grid' (megajoule, DK, None)", -0.0012718986898573158], ["'transport' (ton kilometer, GLO, None)", 0.0001818541502150558], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953900623468], ["'surgery use' (unit, DK, None)", 0.0002282867167111859], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.3746232871852715e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839305693599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719221175272], ["'MUD raw materials' (unit, GLO, None)", 0.0001430800716067106], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141164491085], ["'H200 SU' (unit, GLO, None)", 0.00034896132905816224], ["'autoclave' (unit, DK, None)", 0.0010036219395148061], ["'transport' (ton kilometer, GLO, None)", 7.4385950977054e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.263104761758835e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.29576161583282e-05], ["'eol MUD' (kilogram, GLO, None)", 1.7015338551600896e-05], ["'scalpel' (unit, GLO, None)", 0.003534619866667281], ["'surgery use' (unit, DK, None)", 0.0002282867167111859]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.2100552443197483e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746318747297e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910458019566e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.758335127891748e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3608319503971595e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865235284474e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463178258849e-08], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798822934629e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897126204152e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.984737481378632e-09], ["'MUD raw materials' (unit, GLO, None)", 2.61049468715177e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993188460191e-07], ["'H200 SU' (unit, GLO, None)", -1.3795712439363806e-08], ["'autoclave' (unit, DK, None)", 5.188518649546776e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343851131519e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.6311097536332266e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.275974579079926e-09], ["'eol MUD' (kilogram, GLO, None)", 2.126424544796535e-09], ["'scalpel' (unit, GLO, None)", 9.648030088724651e-09], ["'surgery use' (unit, DK, None)", 1.517327571125803e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381026342758e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005099328671482982], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774469454877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322317334375], ["'mixed heating grid' (megajoule, DK, None)", -0.00021236378338041745], ["'transport' (ton kilometer, GLO, None)", 6.397550962890758e-06], ["'eol SUD' (kilogram, GLO, None)", 1.9735447499195282e-05], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.442467194509938e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194056652674], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100485820984e-05], ["'MUD raw materials' (unit, GLO, None)", 6.674361045927493e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958921509614], ["'H200 SU' (unit, GLO, None)", 3.8524812356685574e-05], ["'autoclave' (unit, DK, None)", 5.6966295367053735e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658330647077e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.787593292198311e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.9145225965574765e-06], ["'eol MUD' (kilogram, GLO, None)", 6.128113570710565e-07], ["'scalpel' (unit, GLO, None)", 0.0002742214947729925], ["'surgery use' (unit, DK, None)", 1.756857698396383e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001900665415138884], ["'SUD manufacturing' (unit, GLO, None)", 0.003484290342377592], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391400765199], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00034396301070103476], ["'mixed heating grid' (megajoule, DK, None)", -0.000526164904549247], ["'transport' (ton kilometer, GLO, None)", 1.427619612868675e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554151987783315e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995978908387906e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003893896539316574], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009464291372309e-05], ["'MUD raw materials' (unit, GLO, None)", 5.181196548157087e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566561119015], ["'H200 SU' (unit, GLO, None)", 5.50568259509581e-05], ["'autoclave' (unit, DK, None)", 9.860417342181876e-05], ["'transport' (ton kilometer, GLO, None)", 5.839561121434233e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.177265403830384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4233157731457223e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540885277864e-06], ["'scalpel' (unit, GLO, None)", 6.294455905919644e-05], ["'surgery use' (unit, DK, None)", 3.24321486201749e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020552041703471663], ["'SUD manufacturing' (unit, GLO, None)", 0.00357238207001844], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165204611943], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035171572543606317], ["'mixed heating grid' (megajoule, DK, None)", -0.0005444304869606283], ["'transport' (ton kilometer, GLO, None)", 1.6160703748167906e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561323488026e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709850880887207e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601703875094], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372220996726374e-05], ["'MUD raw materials' (unit, GLO, None)", 5.312219792401602e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077650669854], ["'H200 SU' (unit, GLO, None)", 6.051728611921485e-05], ["'autoclave' (unit, DK, None)", 0.00010107474766584372], ["'transport' (ton kilometer, GLO, None)", 6.610403531315095e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2528482112758605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4553964353790698e-05], ["'eol MUD' (kilogram, GLO, None)", 2.949575600112936e-06], ["'scalpel' (unit, GLO, None)", 6.537187985593704e-05], ["'surgery use' (unit, DK, None)", 3.321219495968852e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656471118148], ["'SUD manufacturing' (unit, GLO, None)", 0.01065766073372687], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177517013], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002939341909938109], ["'mixed heating grid' (megajoule, DK, None)", -0.0009282160307521845], ["'transport' (ton kilometer, GLO, None)", 1.4551059827263422e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004196072913561529], ["'surgery use' (unit, DK, None)", 0.000261150283775666], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211181546284e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288210232879], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313238610524], ["'MUD raw materials' (unit, GLO, None)", 2.435085333744508e-05], ["'mechanical disinfection' (unit, DK, None)", 0.001834423426578321], ["'H200 SU' (unit, GLO, None)", 0.00025398064809546873], ["'autoclave' (unit, DK, None)", 0.0008555599303128735], ["'transport' (ton kilometer, GLO, None)", 5.951991866531428e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.840949165487976e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00012162969775606159], ["'eol MUD' (kilogram, GLO, None)", 1.2150595105396957e-05], ["'scalpel' (unit, GLO, None)", 0.0009958478184956701], ["'surgery use' (unit, DK, None)", 0.000261150283775666]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2738022845536963e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.72893750602394e-09], ["'SUD raw materials' (unit, GLO, None)", 1.115930722348116e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210525865055e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4057472576659186e-09], ["'transport' (ton kilometer, GLO, None)", 3.5518878043584885e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206470334243e-09], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307201542337703e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712156065391e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365054374071e-11], ["'MUD raw materials' (unit, GLO, None)", 1.009690694271209e-11], ["'mechanical disinfection' (unit, DK, None)", 6.93042566430871e-10], ["'H200 SU' (unit, GLO, None)", 1.332227162126351e-10], ["'autoclave' (unit, DK, None)", 2.9942828072623057e-10], ["'transport' (ton kilometer, GLO, None)", 1.45287062065154e-11], ["'mixed heating grid' (megajoule, DK, None)", -5.81696887075252e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.374727427616651e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2331881924045715e-11], ["'scalpel' (unit, GLO, None)", 2.785269254650216e-10], ["'surgery use' (unit, DK, None)", 1.000313285082893e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.563312586848488e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574862392884e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479456930242e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.627995576764476e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.32941395432847e-07], ["'transport' (ton kilometer, GLO, None)", 1.5540596374574053e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740767009367e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885421461177e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.09492729563502e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577815243221e-08], ["'MUD raw materials' (unit, GLO, None)", 9.467436338596906e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187375831377e-07], ["'H200 SU' (unit, GLO, None)", 1.1144707032853137e-07], ["'autoclave' (unit, DK, None)", 1.259141076331816e-07], ["'transport' (ton kilometer, GLO, None)", 6.35675368808571e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3777083486781684e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5012612311967577e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918485818108e-08], ["'scalpel' (unit, GLO, None)", 2.54510925484211e-07], ["'surgery use' (unit, DK, None)", 4.014411396520964e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642284775998], ["'SUD manufacturing' (unit, GLO, None)", 0.0646377268895148], ["'SUD raw materials' (unit, GLO, None)", 0.02633937975998069], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678827114560602], ["'mixed heating grid' (megajoule, DK, None)", -0.012807776884833796], ["'transport' (ton kilometer, GLO, None)", 0.0012482163339537155], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857666025075], ["'surgery use' (unit, DK, None)", 0.0007925119133273682], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865265724064784e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875812259697], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003658963999024901], ["'MUD raw materials' (unit, GLO, None)", 0.0001060926690721167], ["'mechanical disinfection' (unit, DK, None)", 0.0056818902609178], ["'H200 SU' (unit, GLO, None)", 0.011921860518029738], ["'autoclave' (unit, DK, None)", 0.002519762209988445], ["'transport' (ton kilometer, GLO, None)", 0.0005105726700019632], ["'mixed heating grid' (megajoule, DK, None)", -0.0005299845974184905], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003591290673779917], ["'eol MUD' (kilogram, GLO, None)", 4.080430318138682e-05], ["'scalpel' (unit, GLO, None)", 0.001984452698667129], ["'surgery use' (unit, DK, None)", 0.0007925119133273682]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213808316616], ["'SUD manufacturing' (unit, GLO, None)", 0.0147009148301777], ["'SUD raw materials' (unit, GLO, None)", 0.002276159144772686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236863010722528], ["'mixed heating grid' (megajoule, DK, None)", -0.0004972968784381377], ["'transport' (ton kilometer, GLO, None)", 1.2350059997482568e-05], ["'eol SUD' (kilogram, GLO, None)", 5.240268751655679e-05], ["'surgery use' (unit, DK, None)", 5.15269875749174e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867586590045e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016426371093], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959223121208e-05], ["'MUD raw materials' (unit, GLO, None)", 4.330347987974375e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651791747096], ["'H200 SU' (unit, GLO, None)", 8.564454138073585e-05], ["'autoclave' (unit, DK, None)", 0.00016466196747280933], ["'transport' (ton kilometer, GLO, None)", 5.051690909720886e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.057809784527087e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7532100150909935e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444716568667e-06], ["'scalpel' (unit, GLO, None)", 6.147135005307272e-05], ["'surgery use' (unit, DK, None)", 5.15269875749174e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07337464629172498], ["'SUD manufacturing' (unit, GLO, None)", 0.7431711589805684], ["'SUD raw materials' (unit, GLO, None)", 0.1639270604477119], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17527407733338085], ["'mixed heating grid' (megajoule, DK, None)", -0.14556869192984062], ["'transport' (ton kilometer, GLO, None)", 0.008987454462501774], ["'eol SUD' (kilogram, GLO, None)", 0.42146179476212703], ["'surgery use' (unit, DK, None)", 0.01562895904447449], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903146177016]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838778160453], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01643918972610711], ["'MUD raw materials' (unit, GLO, None)", 0.0008509907172584536], ["'mechanical disinfection' (unit, DK, None)", 0.108340194246262], ["'H200 SU' (unit, GLO, None)", 0.08203926212008428], ["'autoclave' (unit, DK, None)", 0.04667465813331118], ["'transport' (ton kilometer, GLO, None)", 0.003676244651362448], ["'mixed heating grid' (megajoule, DK, None)", -0.006023618718758933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007252825191398221], ["'eol MUD' (kilogram, GLO, None)", 0.01443406095897666], ["'scalpel' (unit, GLO, None)", 0.01251362658934388], ["'surgery use' (unit, DK, None)", 0.01562895904447449]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002039299679481714], ["'SUD manufacturing' (unit, GLO, None)", 1.327090703320352], ["'SUD raw materials' (unit, GLO, None)", 0.01652985356697749], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512733582464264], ["'mixed heating grid' (megajoule, DK, None)", -0.007314555202187493], ["'transport' (ton kilometer, GLO, None)", 0.0002266664369336772], ["'eol SUD' (kilogram, GLO, None)", 0.0355924625765841], ["'surgery use' (unit, DK, None)", 0.003280850433156194], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085949411995e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0412583258672768], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775837604601], ["'MUD raw materials' (unit, GLO, None)", 0.0008178324569415769], ["'mechanical disinfection' (unit, DK, None)", 0.02214425609470718], ["'H200 SU' (unit, GLO, None)", 0.0029613005401387324], ["'autoclave' (unit, DK, None)", 0.0093518876000693], ["'transport' (ton kilometer, GLO, None)", 9.271604990016939e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000302675603188958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004350159482644367], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319269763053], ["'scalpel' (unit, GLO, None)", 0.002720095291141438], ["'surgery use' (unit, DK, None)", 0.003280850433156194]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002716303211051282], ["'SUD manufacturing' (unit, GLO, None)", 1.706688601011589], ["'SUD raw materials' (unit, GLO, None)", 0.0226272780480429], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710100322178747], ["'mixed heating grid' (megajoule, DK, None)", -0.009565813668771798], ["'transport' (ton kilometer, GLO, None)", 0.00040197102710301465], ["'eol SUD' (kilogram, GLO, None)", 0.04890470698172196], ["'surgery use' (unit, DK, None)", 0.004121580290747098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595730040797e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05201857261705004], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095648913887], ["'MUD raw materials' (unit, GLO, None)", 0.001299277200861922], ["'mechanical disinfection' (unit, DK, None)", 0.027851426459368812], ["'H200 SU' (unit, GLO, None)", 0.004268749696001765], ["'autoclave' (unit, DK, None)", 0.011776208429184327], ["'transport' (ton kilometer, GLO, None)", 0.000164422956973601], ["'mixed heating grid' (megajoule, DK, None)", -0.00039583246583781373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005673226897332933], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581222261603], ["'scalpel' (unit, GLO, None)", 0.003632189886377992], ["'surgery use' (unit, DK, None)", 0.004121580290747098]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.20135749423016144], ["'SUD manufacturing' (unit, GLO, None)", 106.6649559051791], ["'SUD raw materials' (unit, GLO, None)", 4.073295800633794], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252202376556255], ["'mixed heating grid' (megajoule, DK, None)", -0.726243263759645], ["'transport' (ton kilometer, GLO, None)", 0.17462324658516168], ["'eol SUD' (kilogram, GLO, None)", 0.9565836074924804], ["'surgery use' (unit, DK, None)", 0.1675159724058336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002108184176985719]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.319406665264638], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03849161659761057], ["'MUD raw materials' (unit, GLO, None)", 0.01129818841900343], ["'mechanical disinfection' (unit, DK, None)", 1.1381641759760717], ["'H200 SU' (unit, GLO, None)", 0.17943905657915793], ["'autoclave' (unit, DK, None)", 0.4872164957725261], ["'transport' (ton kilometer, GLO, None)", 0.07142820905971516], ["'mixed heating grid' (megajoule, DK, None)", -0.030051877639070905], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02173356510361385], ["'eol MUD' (kilogram, GLO, None)", 0.03449744304694388], ["'scalpel' (unit, GLO, None)", 0.4449601147584936], ["'surgery use' (unit, DK, None)", 0.1675159724058336]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365813808289], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813173511348], ["'SUD raw materials' (unit, GLO, None)", 0.0682863336847933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.046016119599647805], ["'mixed heating grid' (megajoule, DK, None)", -0.041762513122702814], ["'transport' (ton kilometer, GLO, None)", 0.0028425462733654427], ["'eol SUD' (kilogram, GLO, None)", 0.0030620550784616193], ["'surgery use' (unit, DK, None)", 0.004035239766505437], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983895817565]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924072849507], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009734544442521455], ["'MUD raw materials' (unit, GLO, None)", 0.0002195650390197187], ["'mechanical disinfection' (unit, DK, None)", 0.028043945142270838], ["'H200 SU' (unit, GLO, None)", 0.028924833320458], ["'autoclave' (unit, DK, None)", 0.012012014929792958], ["'transport' (ton kilometer, GLO, None)", 0.0011627202760592465], ["'mixed heating grid' (megajoule, DK, None)", -0.0017281288473044239], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019041427946467765], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079902527579], ["'scalpel' (unit, GLO, None)", 0.002997337412612526], ["'surgery use' (unit, DK, None)", 0.004035239766505437]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0245813053814233e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001891765986721556], ["'SUD raw materials' (unit, GLO, None)", 4.842529431934944e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077259966142], ["'mixed heating grid' (megajoule, DK, None)", -4.3805376263714635e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704745674106e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059447131438e-06], ["'surgery use' (unit, DK, None)", 1.319445466470771e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765088062708e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691983347514], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.064800179093825e-06], ["'MUD raw materials' (unit, GLO, None)", 1.290391705425021e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453373626903], ["'H200 SU' (unit, GLO, None)", 8.24711714178884e-07], ["'autoclave' (unit, DK, None)", 4.5683732547728236e-05], ["'transport' (ton kilometer, GLO, None)", 2.558844799463436e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8126623310702346e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.689769317402724e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1263237239143748e-07], ["'scalpel' (unit, GLO, None)", 6.328077028702369e-06], ["'surgery use' (unit, DK, None)", 1.319445466470771e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.70559816643164e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.553644762678619e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054779304116e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.995455642413092e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7986080434034376e-06], ["'transport' (ton kilometer, GLO, None)", 2.502036372151965e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510913771766e-06], ["'surgery use' (unit, DK, None)", 8.967658256228113e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9133793833546e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028913421614e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.754741929510746e-07], ["'MUD raw materials' (unit, GLO, None)", 5.317155788052453e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619355570981e-05], ["'H200 SU' (unit, GLO, None)", 9.675192186345423e-07], ["'autoclave' (unit, DK, None)", 3.1597598037764305e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374893375047e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.5718604194438504e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.136110347048478e-07], ["'eol MUD' (kilogram, GLO, None)", 5.680781880680441e-08], ["'scalpel' (unit, GLO, None)", 7.587835131659624e-07], ["'surgery use' (unit, DK, None)", 8.967658256228113e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0031398470796315213], ["'SUD manufacturing' (unit, GLO, None)", 0.1574755157257623], ["'SUD raw materials' (unit, GLO, None)", 0.02773514883659924], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984008404795047], ["'mixed heating grid' (megajoule, DK, None)", -0.006405483268800085], ["'transport' (ton kilometer, GLO, None)", 0.0004539499396067769], ["'eol SUD' (kilogram, GLO, None)", 0.005085285550002083], ["'surgery use' (unit, DK, None)", 0.001386874712230124], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.52063534995363e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853954539551], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000668646298275108], ["'MUD raw materials' (unit, GLO, None)", 0.0003469885777079818], ["'mechanical disinfection' (unit, DK, None)", 0.009875991904003288], ["'H200 SU' (unit, GLO, None)", 0.0009978806020480735], ["'autoclave' (unit, DK, None)", 0.004362734462935213], ["'transport' (ton kilometer, GLO, None)", 0.00018568450548801774], ["'mixed heating grid' (megajoule, DK, None)", -0.0002650582924743026], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005786569809870333], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086657496027], ["'scalpel' (unit, GLO, None)", 0.01590330350406462], ["'surgery use' (unit, DK, None)", 0.001386874712230124]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889683031805], ["'SUD manufacturing' (unit, GLO, None)", 19.95067495875609], ["'SUD raw materials' (unit, GLO, None)", 0.3015071905305193], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24791571027724205], ["'mixed heating grid' (megajoule, DK, None)", -0.1772033324359172], ["'transport' (ton kilometer, GLO, None)", 0.007119574212733089], ["'eol SUD' (kilogram, GLO, None)", 0.5711743576096776], ["'surgery use' (unit, DK, None)", 0.04098247158320153], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0015991761056763968]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937080918526], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00994741545554668], ["'MUD raw materials' (unit, GLO, None)", 0.0138236801650656], ["'mechanical disinfection' (unit, DK, None)", 0.29695414471851156], ["'H200 SU' (unit, GLO, None)", 0.03160459906632865], ["'autoclave' (unit, DK, None)", 0.13246584769801684], ["'transport' (ton kilometer, GLO, None)", 0.0029122035309041617], ["'mixed heating grid' (megajoule, DK, None)", -0.007332657154066533], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010258729278158457], ["'eol MUD' (kilogram, GLO, None)", 0.009928005682287036], ["'scalpel' (unit, GLO, None)", 0.04162521474018867], ["'surgery use' (unit, DK, None)", 0.04098247158320153]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005327375408403904], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149214037529], ["'SUD raw materials' (unit, GLO, None)", 0.009418586918683428], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.053227073746849436], ["'mixed heating grid' (megajoule, DK, None)", -0.012483831437238465], ["'transport' (ton kilometer, GLO, None)", 0.0001457106923183677], ["'eol SUD' (kilogram, GLO, None)", 0.00041449672545397124], ["'surgery use' (unit, DK, None)", 0.004494110622454626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122290145566e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670435692726], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609296993528], ["'MUD raw materials' (unit, GLO, None)", 5.155661506101406e-05], ["'mechanical disinfection' (unit, DK, None)", 0.030903936603203574], ["'H200 SU' (unit, GLO, None)", -0.0015148399519539254], ["'autoclave' (unit, DK, None)", 0.012847783083750352], ["'transport' (ton kilometer, GLO, None)", 5.960176549619018e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00051657976540329], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022025314137085923], ["'eol MUD' (kilogram, GLO, None)", 1.363197338959809e-05], ["'scalpel' (unit, GLO, None)", 0.000799689504664479], ["'surgery use' (unit, DK, None)", 0.004494110622454626]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014840853293841376], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246801921725], ["'SUD raw materials' (unit, GLO, None)", 0.002912705422474318], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657870952743167], ["'mixed heating grid' (megajoule, DK, None)", -0.08782029326763785], ["'transport' (ton kilometer, GLO, None)", 0.00034202433422671983], ["'eol SUD' (kilogram, GLO, None)", 0.00017033282676855228], ["'surgery use' (unit, DK, None)", 0.003112725759821324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404053480848187e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440791525652689], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047334862581484744], ["'MUD raw materials' (unit, GLO, None)", 4.302014370613057e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0207766568536696], ["'H200 SU' (unit, GLO, None)", -0.014391593794429395], ["'autoclave' (unit, DK, None)", 0.008666377688829857], ["'transport' (ton kilometer, GLO, None)", 0.00013990225314441007], ["'mixed heating grid' (megajoule, DK, None)", -0.0036339954381729373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0015136236342855275], ["'eol MUD' (kilogram, GLO, None)", 4.594140341924866e-06], ["'scalpel' (unit, GLO, None)", 0.0004297653602600382], ["'surgery use' (unit, DK, None)", 0.003112725759821324]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088372209828], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265225621034], ["'SUD raw materials' (unit, GLO, None)", 0.009177714654080486], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001763116826171216], ["'mixed heating grid' (megajoule, DK, None)", -0.0012718984454553124], ["'transport' (ton kilometer, GLO, None)", 0.00018185414741418444], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953773439255], ["'surgery use' (unit, DK, None)", 0.0002282867674188521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625644236242e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839959506278], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0001297371916930993], ["'MUD raw materials' (unit, GLO, None)", 9.835056989560853e-05], ["'mechanical disinfection' (unit, DK, None)", 0.001788814466908343], ["'H200 SU' (unit, GLO, None)", 0.000348961368080545], ["'autoclave' (unit, DK, None)", 0.0010036220586902927], ["'transport' (ton kilometer, GLO, None)", 7.438594983138051e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.263103750425655e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.295761202559351e-05], ["'eol MUD' (kilogram, GLO, None)", 1.7015338235570417e-05], ["'scalpel' (unit, GLO, None)", 0.001242963898052399], ["'surgery use' (unit, DK, None)", 0.0002282867674188521]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.2100552483170824e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746330242582e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910475327474e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7583351251419044e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.360831937061919e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865239911746e-09], ["'eol SUD' (kilogram, GLO, None)", 8.57846317513118e-08], ["'surgery use' (unit, DK, None)", 1.517327581536668e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798933826257e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897114662696e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.9847374801551693e-09], ["'MUD raw materials' (unit, GLO, None)", 2.490863569539841e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993122961e-07], ["'H200 SU' (unit, GLO, None)", -1.3795712383707234e-08], ["'autoclave' (unit, DK, None)", 5.188518565799654e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343870059e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.631109698452128e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.275974567701099e-09], ["'eol MUD' (kilogram, GLO, None)", 2.126424544622558e-09], ["'scalpel' (unit, GLO, None)", 3.518890372708581e-09], ["'surgery use' (unit, DK, None)", 1.517327581536668e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.883810277349478e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005099328676390512], ["'SUD raw materials' (unit, GLO, None)", 0.000763077447158546], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014293222830367012], ["'mixed heating grid' (megajoule, DK, None)", -0.00021236377306209237], ["'transport' (ton kilometer, GLO, None)", 6.397550932197998e-06], ["'eol SUD' (kilogram, GLO, None)", 1.9735447181549135e-05], ["'surgery use' (unit, DK, None)", 1.756857762397352e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672315328438e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194034412435], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100450673016e-05], ["'MUD raw materials' (unit, GLO, None)", 2.146506541860813e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958773976422], ["'H200 SU' (unit, GLO, None)", 3.852481317842568e-05], ["'autoclave' (unit, DK, None)", 5.696628967134178e-05], ["'transport' (ton kilometer, GLO, None)", 2.6168658205100858e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.787592865226995e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.914522454634019e-06], ["'eol MUD' (kilogram, GLO, None)", 6.128113525287797e-07], ["'scalpel' (unit, GLO, None)", 4.22429475771351e-05], ["'surgery use' (unit, DK, None)", 1.756857762397352e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001900665416878759], ["'SUD manufacturing' (unit, GLO, None)", 0.003484290356193423], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391410633385], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00034396301158551713], ["'mixed heating grid' (megajoule, DK, None)", -0.0005261648769240738], ["'transport' (ton kilometer, GLO, None)", 1.4276196240813291e-05], ["'eol SUD' (kilogram, GLO, None)", 9.55415193811765e-05], ["'surgery use' (unit, DK, None)", 3.243214889081181e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979684580522e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003893896342922346], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0094642683110925e-05], ["'MUD raw materials' (unit, GLO, None)", 4.589231032870741e-06], ["'mechanical disinfection' (unit, DK, None)", 0.000226685649784305], ["'H200 SU' (unit, GLO, None)", 5.505682748410958e-05], ["'autoclave' (unit, DK, None)", 9.860415729696643e-05], ["'transport' (ton kilometer, GLO, None)", 5.839561167298676e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.177265289517678e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4233157768057022e-05], ["'eol MUD' (kilogram, GLO, None)", 2.901754086369415e-06], ["'scalpel' (unit, GLO, None)", 3.261600072367157e-05], ["'surgery use' (unit, DK, None)", 3.243214889081181e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002055204172007692], ["'SUD manufacturing' (unit, GLO, None)", 0.00357238208409495], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165215683944], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035171572629554557], ["'mixed heating grid' (megajoule, DK, None)", -0.000544430458588653], ["'transport' (ton kilometer, GLO, None)", 1.6160703861095396e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561272992642e-05], ["'surgery use' (unit, DK, None)", 3.321219526912054e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709851681198745e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601511025969], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372220975184697e-05], ["'MUD raw materials' (unit, GLO, None)", 4.701156850708848e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227076083045812], ["'H200 SU' (unit, GLO, None)", 6.051728773120675e-05], ["'autoclave' (unit, DK, None)", 0.00010107473110022538], ["'transport' (ton kilometer, GLO, None)", 6.61040357750716e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2528480938728948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4553964389356e-05], ["'eol MUD' (kilogram, GLO, None)", 2.949575597961498e-06], ["'scalpel' (unit, GLO, None)", 3.406489049300054e-05], ["'surgery use' (unit, DK, None)", 3.321219526912054e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656470322563], ["'SUD manufacturing' (unit, GLO, None)", 0.01065766073567342], ["'SUD raw materials' (unit, GLO, None)", 0.004277360177629884], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029393418947544596], ["'mixed heating grid' (megajoule, DK, None)", -0.0009282160299614394], ["'transport' (ton kilometer, GLO, None)", 1.4551059613717137e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004196072906552596], ["'surgery use' (unit, DK, None)", 0.0002611502877836722], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211315489664e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288244707012], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313239258097], ["'MUD raw materials' (unit, GLO, None)", 6.794295877911163e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234486892509], ["'H200 SU' (unit, GLO, None)", 0.000253980646338764], ["'autoclave' (unit, DK, None)", 0.0008555599328776713], ["'transport' (ton kilometer, GLO, None)", 5.95199177918207e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.8409491622158806e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00012162969712776357], ["'eol MUD' (kilogram, GLO, None)", 1.215059509012497e-05], ["'scalpel' (unit, GLO, None)", 9.636116537566146e-05], ["'surgery use' (unit, DK, None)", 0.0002611502877836722]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2738022807646285e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.728937529178601e-09], ["'SUD raw materials' (unit, GLO, None)", 1.115930718376522e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210513437512e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.405747251931022e-09], ["'transport' (ton kilometer, GLO, None)", 3.551887793152964e-11], ["'eol SUD' (kilogram, GLO, None)", 1.250820646825736e-09], ["'surgery use' (unit, DK, None)", 1.0003133137666e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202152322094e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712117857421e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365182890583e-11], ["'MUD raw materials' (unit, GLO, None)", 5.98520199866993e-12], ["'mechanical disinfection' (unit, DK, None)", 6.930426029493825e-10], ["'H200 SU' (unit, GLO, None)", 1.332227152015541e-10], ["'autoclave' (unit, DK, None)", 2.9942827132611917e-10], ["'transport' (ton kilometer, GLO, None)", 1.452870616068012e-11], ["'mixed heating grid' (megajoule, DK, None)", -5.816968847021573e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.3747273761915927e-11], ["'eol MUD' (kilogram, GLO, None)", 4.233188186986223e-11], ["'scalpel' (unit, GLO, None)", 6.786924141688775e-11], ["'surgery use' (unit, DK, None)", 1.0003133137666e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5633125878908796e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574867166974e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479455795012e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6279955064187755e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.329413805375983e-07], ["'transport' (ton kilometer, GLO, None)", 1.5540596270313922e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740761231689e-07], ["'surgery use' (unit, DK, None)", 4.014411571067368e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885997080015e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.094927363295169e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.3335778127423696e-08], ["'MUD raw materials' (unit, GLO, None)", 6.46542648125123e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187422833202e-07], ["'H200 SU' (unit, GLO, None)", 1.1144707151408985e-07], ["'autoclave' (unit, DK, None)", 1.2591410178557326e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753645438957e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3777082870417698e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5012612020877717e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918474963318e-08], ["'scalpel' (unit, GLO, None)", 1.007069804395573e-07], ["'surgery use' (unit, DK, None)", 4.014411571067368e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.018036422851230402], ["'SUD manufacturing' (unit, GLO, None)", 0.06463772702517528], ["'SUD raw materials' (unit, GLO, None)", 0.026339379787124], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678827081809096], ["'mixed heating grid' (megajoule, DK, None)", -0.012807776475362995], ["'transport' (ton kilometer, GLO, None)", 0.0012482163338467418], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857592246052], ["'surgery use' (unit, DK, None)", 0.0007925119481918483], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.086526726477675e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875858991372], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036589639978679518], ["'MUD raw materials' (unit, GLO, None)", 8.63549254468243e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005681890268904072], ["'H200 SU' (unit, GLO, None)", 0.011921860559992274], ["'autoclave' (unit, DK, None)", 0.0025197620508484414], ["'transport' (ton kilometer, GLO, None)", 0.0005105726699582066], ["'mixed heating grid' (megajoule, DK, None)", -0.0005299845804746273], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003591290660227375], ["'eol MUD' (kilogram, GLO, None)", 4.0804303108554834e-05], ["'scalpel' (unit, GLO, None)", 0.0009732158981482628], ["'surgery use' (unit, DK, None)", 0.0007925119481918483]]</t>
   </si>
 </sst>
 </file>
